--- a/data/Hall-trace-elements.xlsx
+++ b/data/Hall-trace-elements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="10780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28160" windowHeight="10780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hall-trace-elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="352">
   <si>
     <t>species</t>
   </si>
@@ -732,13 +732,364 @@
   </si>
   <si>
     <t>Anolopoma fimbria</t>
+  </si>
+  <si>
+    <t>Sebastes alutus</t>
+  </si>
+  <si>
+    <t>Sebastes caurinus</t>
+  </si>
+  <si>
+    <t>Sebastes flavidus</t>
+  </si>
+  <si>
+    <t>site-m2</t>
+  </si>
+  <si>
+    <t>Sebastes marinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area-north atlantic </t>
+  </si>
+  <si>
+    <t>site-j9</t>
+  </si>
+  <si>
+    <t>Sebastes paucispinis</t>
+  </si>
+  <si>
+    <t>Sebastes pinniger</t>
+  </si>
+  <si>
+    <t>Myoxocephalus octodecemspinosus</t>
+  </si>
+  <si>
+    <t>Prionotus carolinus</t>
+  </si>
+  <si>
+    <t>Prionotus evolans</t>
+  </si>
+  <si>
+    <t>Squalus acanthias</t>
+  </si>
+  <si>
+    <t>Sphyrna lewini</t>
+  </si>
+  <si>
+    <t>site-s7</t>
+  </si>
+  <si>
+    <t>site-c5</t>
+  </si>
+  <si>
+    <t>Sphyrna zygaena</t>
+  </si>
+  <si>
+    <t>Carcharodon carcharias</t>
+  </si>
+  <si>
+    <t>Isurus oxyrinchus</t>
+  </si>
+  <si>
+    <t>Carcharhinus limbatus</t>
+  </si>
+  <si>
+    <t>site-d7</t>
+  </si>
+  <si>
+    <t>Carcharhinus milberti</t>
+  </si>
+  <si>
+    <t>Carcharhinus obscurus</t>
+  </si>
+  <si>
+    <t>Mustelus canis</t>
+  </si>
+  <si>
+    <t>Prionace glauca</t>
+  </si>
+  <si>
+    <t>Rhizoprionodon terraenovae</t>
+  </si>
+  <si>
+    <t>Atherinopsis californiensis</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>Raja erinacea</t>
+  </si>
+  <si>
+    <t>site-j7</t>
+  </si>
+  <si>
+    <t>Raja ocellata</t>
+  </si>
+  <si>
+    <t>Thaleichthys pacificus</t>
+  </si>
+  <si>
+    <t>Lutjanus buccanella</t>
+  </si>
+  <si>
+    <t>site-u8</t>
+  </si>
+  <si>
+    <t>Lutjanus campechanus</t>
+  </si>
+  <si>
+    <t>Lutjanus griseus</t>
+  </si>
+  <si>
+    <t>Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t>Rhomboplites aurorubens</t>
+  </si>
+  <si>
+    <t>Etelis marchi</t>
+  </si>
+  <si>
+    <t>Aprion virescens</t>
+  </si>
+  <si>
+    <t>site-d9</t>
+  </si>
+  <si>
+    <t>Centropomus undecimalis</t>
+  </si>
+  <si>
+    <t>Myriprpistis argyromus</t>
+  </si>
+  <si>
+    <t>site-c6</t>
+  </si>
+  <si>
+    <t>Acipenser medirostris</t>
+  </si>
+  <si>
+    <t>Amphistichus argenteus</t>
+  </si>
+  <si>
+    <t>Cymatogaster aggregata</t>
+  </si>
+  <si>
+    <t>Lopholatilus chamaeleonticeps</t>
+  </si>
+  <si>
+    <t>site-g6</t>
+  </si>
+  <si>
+    <t>Oncorhynchus gorbuscha</t>
+  </si>
+  <si>
+    <t>Oncorhyncus keta</t>
+  </si>
+  <si>
+    <t>site-m3</t>
+  </si>
+  <si>
+    <t>Oncorhyncus kisutch</t>
+  </si>
+  <si>
+    <t>Oncorhyncus nerka</t>
+  </si>
+  <si>
+    <t>Oncorhyncus tsawytschs</t>
+  </si>
+  <si>
+    <t>Salmo clarki</t>
+  </si>
+  <si>
+    <t>site-n4</t>
+  </si>
+  <si>
+    <t>Salmo gairdneri</t>
+  </si>
+  <si>
+    <t>Anarhichas lupus</t>
+  </si>
+  <si>
+    <t>Tautoga onitis</t>
+  </si>
+  <si>
+    <t>Haliotis fulgens</t>
+  </si>
+  <si>
+    <t>shucked</t>
+  </si>
+  <si>
+    <t>Haliotis rufescens</t>
+  </si>
+  <si>
+    <t>site-e3</t>
+  </si>
+  <si>
+    <t>Loligo pealii</t>
+  </si>
+  <si>
+    <t>mantle, skinless</t>
+  </si>
+  <si>
+    <t>Loligo opalescens</t>
+  </si>
+  <si>
+    <t>Illex illecebrosus</t>
+  </si>
+  <si>
+    <t>Crassostrea virginica</t>
+  </si>
+  <si>
+    <t>Crassostrea gigas</t>
+  </si>
+  <si>
+    <t>shucked, small</t>
+  </si>
+  <si>
+    <t>shucked, medium</t>
+  </si>
+  <si>
+    <t>Plactopen magellasnicus</t>
+  </si>
+  <si>
+    <t>adductor muscle</t>
+  </si>
+  <si>
+    <t>Aquipecten irradians</t>
+  </si>
+  <si>
+    <t>site-c1</t>
+  </si>
+  <si>
+    <t>Aquipecten gibbus</t>
+  </si>
+  <si>
+    <t>Chlamys hericius</t>
+  </si>
+  <si>
+    <t>site-l4</t>
+  </si>
+  <si>
+    <t>Mercenaria mercenaria</t>
+  </si>
+  <si>
+    <t>shucked mixed</t>
+  </si>
+  <si>
+    <t>shucked, littleneck</t>
+  </si>
+  <si>
+    <t>Saxidomus gigantea</t>
+  </si>
+  <si>
+    <t>shucked, large</t>
+  </si>
+  <si>
+    <t>Protothaca staminea</t>
+  </si>
+  <si>
+    <t>Hymenopanaes robustus</t>
+  </si>
+  <si>
+    <t>tail, peeled</t>
+  </si>
+  <si>
+    <t>Panaeus setiferus</t>
+  </si>
+  <si>
+    <t>Panaeus aztecus</t>
+  </si>
+  <si>
+    <t>Pandalus jordani</t>
+  </si>
+  <si>
+    <t>Penaeus duorarum</t>
+  </si>
+  <si>
+    <t>Pandalus borealis</t>
+  </si>
+  <si>
+    <t>Pandalopsis dispar</t>
+  </si>
+  <si>
+    <t>Panulirus argus</t>
+  </si>
+  <si>
+    <t>tail meat</t>
+  </si>
+  <si>
+    <t>Panaulirus interruptus</t>
+  </si>
+  <si>
+    <t>Homarus americanus</t>
+  </si>
+  <si>
+    <t>claw and tail meat</t>
+  </si>
+  <si>
+    <t>Callinectes sapidus</t>
+  </si>
+  <si>
+    <t>body meat</t>
+  </si>
+  <si>
+    <t>claw meat</t>
+  </si>
+  <si>
+    <t>Cancer erroratus</t>
+  </si>
+  <si>
+    <t>site-i4</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>Geryon quinquedens</t>
+  </si>
+  <si>
+    <t>Cancer magister</t>
+  </si>
+  <si>
+    <t>Paralithodes camschatica</t>
+  </si>
+  <si>
+    <t>claw and body meat</t>
+  </si>
+  <si>
+    <t>Chionecetes bairdi</t>
+  </si>
+  <si>
+    <t>Elops saurus</t>
+  </si>
+  <si>
+    <t>Megalops atlantica</t>
+  </si>
+  <si>
+    <t>Polypus marmuratus</t>
+  </si>
+  <si>
+    <t>Chanos chanos</t>
+  </si>
+  <si>
+    <t>Mya arenaria</t>
+  </si>
+  <si>
+    <t>Siliqua patula</t>
+  </si>
+  <si>
+    <t>Spisula solidissima</t>
+  </si>
+  <si>
+    <t>shucked-whole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,6 +1113,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -780,7 +1138,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -788,18 +1146,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T212"/>
+  <dimension ref="A1:T331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="Q332" sqref="Q332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14225,6 +14592,7384 @@
       </c>
       <c r="T212">
         <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>235</v>
+      </c>
+      <c r="B213">
+        <v>131023</v>
+      </c>
+      <c r="C213" t="s">
+        <v>172</v>
+      </c>
+      <c r="D213" t="s">
+        <v>111</v>
+      </c>
+      <c r="E213" t="s">
+        <v>38</v>
+      </c>
+      <c r="F213">
+        <v>0.04</v>
+      </c>
+      <c r="G213">
+        <v>0.379</v>
+      </c>
+      <c r="H213">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I213">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="J213">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K213">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L213">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M213">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="N213">
+        <v>3.8</v>
+      </c>
+      <c r="O213">
+        <v>0.4</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="S213">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="T213">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>236</v>
+      </c>
+      <c r="B214">
+        <v>131031</v>
+      </c>
+      <c r="C214" t="s">
+        <v>172</v>
+      </c>
+      <c r="D214" t="s">
+        <v>123</v>
+      </c>
+      <c r="E214" t="s">
+        <v>38</v>
+      </c>
+      <c r="F214">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G214">
+        <v>0.501</v>
+      </c>
+      <c r="H214">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I214">
+        <v>2.11</v>
+      </c>
+      <c r="J214">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K214">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L214">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M214">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="N214">
+        <v>2.97</v>
+      </c>
+      <c r="O214">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="P214">
+        <v>0.25</v>
+      </c>
+      <c r="Q214">
+        <v>0.188</v>
+      </c>
+      <c r="R214">
+        <v>0.108</v>
+      </c>
+      <c r="S214">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="T214">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>237</v>
+      </c>
+      <c r="B215">
+        <v>131043</v>
+      </c>
+      <c r="C215" t="s">
+        <v>172</v>
+      </c>
+      <c r="D215" t="s">
+        <v>238</v>
+      </c>
+      <c r="E215" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215">
+        <v>0.154</v>
+      </c>
+      <c r="G215">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H215">
+        <v>0.06</v>
+      </c>
+      <c r="I215">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="J215">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="K215">
+        <v>0.03</v>
+      </c>
+      <c r="L215">
+        <v>0.109</v>
+      </c>
+      <c r="M215">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N215">
+        <v>5.87</v>
+      </c>
+      <c r="O215">
+        <v>3.93</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S215">
+        <v>0.43</v>
+      </c>
+      <c r="T215">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>239</v>
+      </c>
+      <c r="B216">
+        <v>131052</v>
+      </c>
+      <c r="C216" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" t="s">
+        <v>117</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G216">
+        <v>0.38</v>
+      </c>
+      <c r="H216">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I216">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="J216">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K216">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L216">
+        <v>0.182</v>
+      </c>
+      <c r="M216">
+        <v>0.224</v>
+      </c>
+      <c r="N216">
+        <v>3.2</v>
+      </c>
+      <c r="O216">
+        <v>0.188</v>
+      </c>
+      <c r="P216">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q216">
+        <v>0.125</v>
+      </c>
+      <c r="R216">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S216">
+        <v>0.51</v>
+      </c>
+      <c r="T216">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>239</v>
+      </c>
+      <c r="B217">
+        <v>131052</v>
+      </c>
+      <c r="C217" t="s">
+        <v>240</v>
+      </c>
+      <c r="D217" t="s">
+        <v>241</v>
+      </c>
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217">
+        <v>0.13</v>
+      </c>
+      <c r="G217">
+        <v>0.37</v>
+      </c>
+      <c r="H217">
+        <v>0.01</v>
+      </c>
+      <c r="I217">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="J217">
+        <v>0.63</v>
+      </c>
+      <c r="K217">
+        <v>0.04</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0.25</v>
+      </c>
+      <c r="N217">
+        <v>2.56</v>
+      </c>
+      <c r="O217">
+        <v>0.22</v>
+      </c>
+      <c r="P217">
+        <v>0.87</v>
+      </c>
+      <c r="Q217">
+        <v>0.5</v>
+      </c>
+      <c r="R217">
+        <v>0.06</v>
+      </c>
+      <c r="S217">
+        <v>1.06</v>
+      </c>
+      <c r="T217">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>242</v>
+      </c>
+      <c r="B218">
+        <v>131061</v>
+      </c>
+      <c r="C218" t="s">
+        <v>36</v>
+      </c>
+      <c r="D218" t="s">
+        <v>48</v>
+      </c>
+      <c r="E218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218">
+        <v>0.27</v>
+      </c>
+      <c r="G218">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H218">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I218">
+        <v>2.012</v>
+      </c>
+      <c r="J218">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K218">
+        <v>0.04</v>
+      </c>
+      <c r="L218">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M218">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N218">
+        <v>3.67</v>
+      </c>
+      <c r="O218">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="P218">
+        <v>0.87</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>0.123</v>
+      </c>
+      <c r="S218">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="T218">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219">
+        <v>131061</v>
+      </c>
+      <c r="C219" t="s">
+        <v>172</v>
+      </c>
+      <c r="D219" t="s">
+        <v>111</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G219">
+        <v>0.501</v>
+      </c>
+      <c r="H219">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I219">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="J219">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K219">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L219">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="M219">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N219">
+        <v>3.63</v>
+      </c>
+      <c r="O219">
+        <v>0.19</v>
+      </c>
+      <c r="P219">
+        <v>0.217</v>
+      </c>
+      <c r="Q219">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R219">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S219">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="T219">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>243</v>
+      </c>
+      <c r="B220">
+        <v>131063</v>
+      </c>
+      <c r="C220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" t="s">
+        <v>165</v>
+      </c>
+      <c r="E220" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220">
+        <v>0.112</v>
+      </c>
+      <c r="G220">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H220">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I220">
+        <v>2.9460000000000002</v>
+      </c>
+      <c r="J220">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K220">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L220">
+        <v>0.246</v>
+      </c>
+      <c r="M220">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="N220">
+        <v>5.73</v>
+      </c>
+      <c r="O220">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P220">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="S220">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="T220">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>243</v>
+      </c>
+      <c r="B221">
+        <v>131063</v>
+      </c>
+      <c r="C221" t="s">
+        <v>172</v>
+      </c>
+      <c r="D221" t="s">
+        <v>111</v>
+      </c>
+      <c r="E221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221">
+        <v>0.06</v>
+      </c>
+      <c r="G221">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H221">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I221">
+        <v>2.633</v>
+      </c>
+      <c r="J221">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K221">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L221">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M221">
+        <v>0.314</v>
+      </c>
+      <c r="N221">
+        <v>4.46</v>
+      </c>
+      <c r="O221">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P221">
+        <v>0.245</v>
+      </c>
+      <c r="Q221">
+        <v>0.35</v>
+      </c>
+      <c r="R221">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S221">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="T221">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>244</v>
+      </c>
+      <c r="B222">
+        <v>132031</v>
+      </c>
+      <c r="C222" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222">
+        <v>0.33</v>
+      </c>
+      <c r="G222">
+        <v>0.25</v>
+      </c>
+      <c r="H222">
+        <v>0.06</v>
+      </c>
+      <c r="I222">
+        <v>2.5</v>
+      </c>
+      <c r="J222">
+        <v>1.04</v>
+      </c>
+      <c r="K222">
+        <v>0.02</v>
+      </c>
+      <c r="L222">
+        <v>0.16</v>
+      </c>
+      <c r="M222">
+        <v>0.21</v>
+      </c>
+      <c r="N222">
+        <v>4.38</v>
+      </c>
+      <c r="O222">
+        <v>0.91</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0.26</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>245</v>
+      </c>
+      <c r="B223">
+        <v>135010</v>
+      </c>
+      <c r="C223" t="s">
+        <v>43</v>
+      </c>
+      <c r="D223" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223">
+        <v>0.24</v>
+      </c>
+      <c r="G223">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="H223">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I223">
+        <v>4.8440000000000003</v>
+      </c>
+      <c r="J223">
+        <v>0.625</v>
+      </c>
+      <c r="K223">
+        <v>0.04</v>
+      </c>
+      <c r="L223">
+        <v>0.22</v>
+      </c>
+      <c r="M223">
+        <v>3.75</v>
+      </c>
+      <c r="N223">
+        <v>5.33</v>
+      </c>
+      <c r="O223">
+        <v>0.45</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0.13</v>
+      </c>
+      <c r="R223">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="S223">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="T223">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>245</v>
+      </c>
+      <c r="B224">
+        <v>135010</v>
+      </c>
+      <c r="C224" t="s">
+        <v>47</v>
+      </c>
+      <c r="D224" t="s">
+        <v>50</v>
+      </c>
+      <c r="E224" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224">
+        <v>0.06</v>
+      </c>
+      <c r="G224">
+        <v>0.623</v>
+      </c>
+      <c r="H224">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I224">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="J224">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="K224">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L224">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M224">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="N224">
+        <v>3.71</v>
+      </c>
+      <c r="O224">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="P224">
+        <v>0.182</v>
+      </c>
+      <c r="Q224">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="R224">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="S224">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="T224">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>246</v>
+      </c>
+      <c r="B225">
+        <v>135011</v>
+      </c>
+      <c r="C225" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" t="s">
+        <v>82</v>
+      </c>
+      <c r="E225" t="s">
+        <v>38</v>
+      </c>
+      <c r="F225">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G225">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H225">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I225">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="J225">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="K225">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L225">
+        <v>0.1</v>
+      </c>
+      <c r="M225">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="N225">
+        <v>5.37</v>
+      </c>
+      <c r="O225">
+        <v>0.22</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="S225">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="T225">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>247</v>
+      </c>
+      <c r="B226">
+        <v>141007</v>
+      </c>
+      <c r="C226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D226" t="s">
+        <v>154</v>
+      </c>
+      <c r="E226" t="s">
+        <v>38</v>
+      </c>
+      <c r="F226">
+        <v>0.223</v>
+      </c>
+      <c r="G226">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H226">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I226">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="J226">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="K226">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L226">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="M226">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N226">
+        <v>5.13</v>
+      </c>
+      <c r="O226">
+        <v>0.245</v>
+      </c>
+      <c r="P226">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Q226">
+        <v>0.5</v>
+      </c>
+      <c r="R226">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="S226">
+        <v>0.69</v>
+      </c>
+      <c r="T226">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>247</v>
+      </c>
+      <c r="B227">
+        <v>141007</v>
+      </c>
+      <c r="C227" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" t="s">
+        <v>151</v>
+      </c>
+      <c r="E227" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227">
+        <v>0.16</v>
+      </c>
+      <c r="G227">
+        <v>0.81</v>
+      </c>
+      <c r="H227">
+        <v>0.26</v>
+      </c>
+      <c r="I227">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="J227">
+        <v>0.45</v>
+      </c>
+      <c r="K227">
+        <v>0.04</v>
+      </c>
+      <c r="L227">
+        <v>0.06</v>
+      </c>
+      <c r="M227">
+        <v>0.37</v>
+      </c>
+      <c r="N227">
+        <v>3.56</v>
+      </c>
+      <c r="O227">
+        <v>0.11</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0.09</v>
+      </c>
+      <c r="S227">
+        <v>0.81</v>
+      </c>
+      <c r="T227">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>247</v>
+      </c>
+      <c r="B228">
+        <v>141007</v>
+      </c>
+      <c r="C228" t="s">
+        <v>172</v>
+      </c>
+      <c r="D228" t="s">
+        <v>162</v>
+      </c>
+      <c r="E228" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228">
+        <v>0.372</v>
+      </c>
+      <c r="G228">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H228">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I228">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="J228">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K228">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L228">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M228">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="N228">
+        <v>2.63</v>
+      </c>
+      <c r="O228">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="P228">
+        <v>0.27</v>
+      </c>
+      <c r="Q228">
+        <v>0.1</v>
+      </c>
+      <c r="R228">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="S228">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="T228">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>248</v>
+      </c>
+      <c r="B229">
+        <v>143001</v>
+      </c>
+      <c r="C229" t="s">
+        <v>43</v>
+      </c>
+      <c r="D229" t="s">
+        <v>249</v>
+      </c>
+      <c r="E229" t="s">
+        <v>38</v>
+      </c>
+      <c r="F229">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="G229">
+        <v>1.288</v>
+      </c>
+      <c r="H229">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I229">
+        <v>4334</v>
+      </c>
+      <c r="J229">
+        <v>0.878</v>
+      </c>
+      <c r="K229">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L229">
+        <v>0.122</v>
+      </c>
+      <c r="M229">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="N229">
+        <v>4.82</v>
+      </c>
+      <c r="O229">
+        <v>0.379</v>
+      </c>
+      <c r="P229">
+        <v>0.215</v>
+      </c>
+      <c r="Q229">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="R229">
+        <v>0.105</v>
+      </c>
+      <c r="S229">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="T229">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>248</v>
+      </c>
+      <c r="B230">
+        <v>143001</v>
+      </c>
+      <c r="C230" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" t="s">
+        <v>250</v>
+      </c>
+      <c r="E230" t="s">
+        <v>38</v>
+      </c>
+      <c r="F230">
+        <v>2.5470000000000002</v>
+      </c>
+      <c r="G230">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H230">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I230">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="J230">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K230">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L230">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="M230">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="N230">
+        <v>5.05</v>
+      </c>
+      <c r="O230">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="P230">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Q230">
+        <v>0.185</v>
+      </c>
+      <c r="R230">
+        <v>0.128</v>
+      </c>
+      <c r="S230">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="T230">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>251</v>
+      </c>
+      <c r="B231">
+        <v>143005</v>
+      </c>
+      <c r="C231" t="s">
+        <v>47</v>
+      </c>
+      <c r="D231" t="s">
+        <v>83</v>
+      </c>
+      <c r="E231" t="s">
+        <v>38</v>
+      </c>
+      <c r="F231">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="G231">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H231">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I231">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="J231">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K231">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L231">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M231">
+        <v>0.42</v>
+      </c>
+      <c r="N231">
+        <v>4.53</v>
+      </c>
+      <c r="O231">
+        <v>0.155</v>
+      </c>
+      <c r="P231">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q231">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="R231">
+        <v>0.106</v>
+      </c>
+      <c r="S231">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="T231">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>252</v>
+      </c>
+      <c r="B232">
+        <v>144001</v>
+      </c>
+      <c r="C232" t="s">
+        <v>43</v>
+      </c>
+      <c r="D232" t="s">
+        <v>98</v>
+      </c>
+      <c r="E232" t="s">
+        <v>38</v>
+      </c>
+      <c r="F232">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G232">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H232">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I232">
+        <v>9.7650000000000006</v>
+      </c>
+      <c r="J232">
+        <v>0.6</v>
+      </c>
+      <c r="K232">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L232">
+        <v>0.255</v>
+      </c>
+      <c r="M232">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N232">
+        <v>4.42</v>
+      </c>
+      <c r="O232">
+        <v>0.22</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0.06</v>
+      </c>
+      <c r="S232">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T232">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>253</v>
+      </c>
+      <c r="B233">
+        <v>144003</v>
+      </c>
+      <c r="C233" t="s">
+        <v>43</v>
+      </c>
+      <c r="D233" t="s">
+        <v>98</v>
+      </c>
+      <c r="E233" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233">
+        <v>2.41</v>
+      </c>
+      <c r="G233">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H233">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I233">
+        <v>5.883</v>
+      </c>
+      <c r="J233">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="K233">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L233">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M233">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N233">
+        <v>2.92</v>
+      </c>
+      <c r="O233">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P233">
+        <v>0.06</v>
+      </c>
+      <c r="Q233">
+        <v>0.19</v>
+      </c>
+      <c r="R233">
+        <v>0.08</v>
+      </c>
+      <c r="S233">
+        <v>0.627</v>
+      </c>
+      <c r="T233">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>254</v>
+      </c>
+      <c r="B234">
+        <v>145006</v>
+      </c>
+      <c r="C234" t="s">
+        <v>47</v>
+      </c>
+      <c r="D234" t="s">
+        <v>50</v>
+      </c>
+      <c r="E234" t="s">
+        <v>38</v>
+      </c>
+      <c r="F234">
+        <v>0.49</v>
+      </c>
+      <c r="G234">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H234">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I234">
+        <v>11.045999999999999</v>
+      </c>
+      <c r="J234">
+        <v>0.8</v>
+      </c>
+      <c r="K234">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L234">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M234">
+        <v>0.318</v>
+      </c>
+      <c r="N234">
+        <v>3.45</v>
+      </c>
+      <c r="O234">
+        <v>0.2</v>
+      </c>
+      <c r="P234">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="Q234">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R234">
+        <v>0.105</v>
+      </c>
+      <c r="S234">
+        <v>0.751</v>
+      </c>
+      <c r="T234">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>254</v>
+      </c>
+      <c r="B235">
+        <v>145006</v>
+      </c>
+      <c r="C235" t="s">
+        <v>40</v>
+      </c>
+      <c r="D235" t="s">
+        <v>255</v>
+      </c>
+      <c r="E235" t="s">
+        <v>38</v>
+      </c>
+      <c r="F235">
+        <v>2.02</v>
+      </c>
+      <c r="G235">
+        <v>0.74</v>
+      </c>
+      <c r="H235">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I235">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="J235">
+        <v>1.218</v>
+      </c>
+      <c r="K235">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L235">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M235">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="N235">
+        <v>3.23</v>
+      </c>
+      <c r="O235">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P235">
+        <v>0.38</v>
+      </c>
+      <c r="Q235">
+        <v>0.31</v>
+      </c>
+      <c r="R235">
+        <v>0.115</v>
+      </c>
+      <c r="S235">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="T235">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>256</v>
+      </c>
+      <c r="B236">
+        <v>145009</v>
+      </c>
+      <c r="C236" t="s">
+        <v>43</v>
+      </c>
+      <c r="D236" t="s">
+        <v>98</v>
+      </c>
+      <c r="E236" t="s">
+        <v>38</v>
+      </c>
+      <c r="F236">
+        <v>1.49</v>
+      </c>
+      <c r="G236">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="H236">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I236">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="J236">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="K236">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L236">
+        <v>0.158</v>
+      </c>
+      <c r="M236">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="N236">
+        <v>6.71</v>
+      </c>
+      <c r="O236">
+        <v>0.214</v>
+      </c>
+      <c r="P236">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="S236">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="T236">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>256</v>
+      </c>
+      <c r="B237">
+        <v>145009</v>
+      </c>
+      <c r="C237" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237" t="s">
+        <v>255</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="G237">
+        <v>0.99</v>
+      </c>
+      <c r="H237">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I237">
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="J237">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="K237">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L237">
+        <v>0.09</v>
+      </c>
+      <c r="M237">
+        <v>0.317</v>
+      </c>
+      <c r="N237">
+        <v>4.21</v>
+      </c>
+      <c r="O237">
+        <v>0.183</v>
+      </c>
+      <c r="P237">
+        <v>0.62</v>
+      </c>
+      <c r="Q237">
+        <v>0.2</v>
+      </c>
+      <c r="R237">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S237">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="T237">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>257</v>
+      </c>
+      <c r="B238">
+        <v>145010</v>
+      </c>
+      <c r="C238" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238" t="s">
+        <v>98</v>
+      </c>
+      <c r="E238" t="s">
+        <v>38</v>
+      </c>
+      <c r="F238">
+        <v>1.78</v>
+      </c>
+      <c r="G238">
+        <v>1.25</v>
+      </c>
+      <c r="H238">
+        <v>0.1</v>
+      </c>
+      <c r="I238">
+        <v>7.55</v>
+      </c>
+      <c r="J238">
+        <v>1.05</v>
+      </c>
+      <c r="K238">
+        <v>0.08</v>
+      </c>
+      <c r="L238">
+        <v>0.19</v>
+      </c>
+      <c r="M238">
+        <v>0.31</v>
+      </c>
+      <c r="N238">
+        <v>3.94</v>
+      </c>
+      <c r="O238">
+        <v>0.27</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0.88</v>
+      </c>
+      <c r="S238">
+        <v>0.34</v>
+      </c>
+      <c r="T238">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>257</v>
+      </c>
+      <c r="B239">
+        <v>145010</v>
+      </c>
+      <c r="C239" t="s">
+        <v>47</v>
+      </c>
+      <c r="D239" t="s">
+        <v>83</v>
+      </c>
+      <c r="E239" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239">
+        <v>1.57</v>
+      </c>
+      <c r="G239">
+        <v>0.44</v>
+      </c>
+      <c r="H239">
+        <v>0.09</v>
+      </c>
+      <c r="I239">
+        <v>7.9</v>
+      </c>
+      <c r="J239">
+        <v>1.3</v>
+      </c>
+      <c r="K239">
+        <v>0.05</v>
+      </c>
+      <c r="L239">
+        <v>0.19</v>
+      </c>
+      <c r="M239">
+        <v>0.71</v>
+      </c>
+      <c r="N239">
+        <v>8.5</v>
+      </c>
+      <c r="O239">
+        <v>0.19</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0.11</v>
+      </c>
+      <c r="S239">
+        <v>0.44</v>
+      </c>
+      <c r="T239">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>257</v>
+      </c>
+      <c r="B240">
+        <v>145010</v>
+      </c>
+      <c r="C240" t="s">
+        <v>40</v>
+      </c>
+      <c r="D240" t="s">
+        <v>255</v>
+      </c>
+      <c r="E240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240">
+        <v>1.383</v>
+      </c>
+      <c r="G240">
+        <v>0.62</v>
+      </c>
+      <c r="H240">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I240">
+        <v>21.805</v>
+      </c>
+      <c r="J240">
+        <v>0.8</v>
+      </c>
+      <c r="K240">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L240">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M240">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="N240">
+        <v>4.01</v>
+      </c>
+      <c r="O240">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0.09</v>
+      </c>
+      <c r="S240">
+        <v>0.69</v>
+      </c>
+      <c r="T240">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>258</v>
+      </c>
+      <c r="B241">
+        <v>145018</v>
+      </c>
+      <c r="C241" t="s">
+        <v>43</v>
+      </c>
+      <c r="D241" t="s">
+        <v>193</v>
+      </c>
+      <c r="E241" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241">
+        <v>0.4</v>
+      </c>
+      <c r="G241">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H241">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I241">
+        <v>9.4760000000000009</v>
+      </c>
+      <c r="J241">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K241">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L241">
+        <v>0.251</v>
+      </c>
+      <c r="M241">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="N241">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O241">
+        <v>0.223</v>
+      </c>
+      <c r="P241">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="Q241">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="R241">
+        <v>0.191</v>
+      </c>
+      <c r="S241">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="T241">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>259</v>
+      </c>
+      <c r="B242">
+        <v>145023</v>
+      </c>
+      <c r="C242" t="s">
+        <v>43</v>
+      </c>
+      <c r="D242" t="s">
+        <v>98</v>
+      </c>
+      <c r="E242" t="s">
+        <v>38</v>
+      </c>
+      <c r="F242">
+        <v>0.88</v>
+      </c>
+      <c r="G242">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H242">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I242">
+        <v>14.579000000000001</v>
+      </c>
+      <c r="J242">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="K242">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L242">
+        <v>0.16</v>
+      </c>
+      <c r="M242">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N242">
+        <v>6.7</v>
+      </c>
+      <c r="O242">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="P242">
+        <v>0.123</v>
+      </c>
+      <c r="Q242">
+        <v>0.315</v>
+      </c>
+      <c r="R242">
+        <v>0.11</v>
+      </c>
+      <c r="S242">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="T242">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>260</v>
+      </c>
+      <c r="B243">
+        <v>145025</v>
+      </c>
+      <c r="C243" t="s">
+        <v>47</v>
+      </c>
+      <c r="D243" t="s">
+        <v>83</v>
+      </c>
+      <c r="E243" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243">
+        <v>0.83</v>
+      </c>
+      <c r="G243">
+        <v>0.69</v>
+      </c>
+      <c r="H243">
+        <v>0.09</v>
+      </c>
+      <c r="I243">
+        <v>11.055</v>
+      </c>
+      <c r="J243">
+        <v>1.24</v>
+      </c>
+      <c r="K243">
+        <v>0.02</v>
+      </c>
+      <c r="L243">
+        <v>0.09</v>
+      </c>
+      <c r="M243">
+        <v>1.03</v>
+      </c>
+      <c r="N243">
+        <v>3.25</v>
+      </c>
+      <c r="O243">
+        <v>2.5</v>
+      </c>
+      <c r="P243">
+        <v>0.25</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>0.09</v>
+      </c>
+      <c r="S243">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="T243">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>261</v>
+      </c>
+      <c r="B244">
+        <v>149004</v>
+      </c>
+      <c r="C244" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" t="s">
+        <v>78</v>
+      </c>
+      <c r="E244" t="s">
+        <v>262</v>
+      </c>
+      <c r="F244">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G244">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="H244">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I244">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="J244">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="K244">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L244">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M244">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N244">
+        <v>29.05</v>
+      </c>
+      <c r="O244">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="P244">
+        <v>0.24</v>
+      </c>
+      <c r="Q244">
+        <v>0.747</v>
+      </c>
+      <c r="R244">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="S244">
+        <v>1.518</v>
+      </c>
+      <c r="T244">
+        <v>8.8989999999999991</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>263</v>
+      </c>
+      <c r="B245">
+        <v>150005</v>
+      </c>
+      <c r="C245" t="s">
+        <v>43</v>
+      </c>
+      <c r="D245" t="s">
+        <v>264</v>
+      </c>
+      <c r="E245" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245">
+        <v>0.121</v>
+      </c>
+      <c r="G245">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H245">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I245">
+        <v>18.631</v>
+      </c>
+      <c r="J245">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="K245">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="L245">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M245">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="N245">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="O245">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="P245">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Q245">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="R245">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="S245">
+        <v>0.25</v>
+      </c>
+      <c r="T245">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>265</v>
+      </c>
+      <c r="B246">
+        <v>150012</v>
+      </c>
+      <c r="C246" t="s">
+        <v>43</v>
+      </c>
+      <c r="D246" t="s">
+        <v>123</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G246">
+        <v>0.376</v>
+      </c>
+      <c r="H246">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I246">
+        <v>12.7</v>
+      </c>
+      <c r="J246">
+        <v>0.44</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M246">
+        <v>0.23</v>
+      </c>
+      <c r="N246">
+        <v>7.3</v>
+      </c>
+      <c r="O246">
+        <v>0.11</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S246">
+        <v>1.8</v>
+      </c>
+      <c r="T246">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>266</v>
+      </c>
+      <c r="B247">
+        <v>153009</v>
+      </c>
+      <c r="C247" t="s">
+        <v>172</v>
+      </c>
+      <c r="D247" t="s">
+        <v>111</v>
+      </c>
+      <c r="E247" t="s">
+        <v>262</v>
+      </c>
+      <c r="F247">
+        <v>0.01</v>
+      </c>
+      <c r="G247">
+        <v>0.621</v>
+      </c>
+      <c r="H247">
+        <v>0.109</v>
+      </c>
+      <c r="I247">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="J247">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="K247">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L247">
+        <v>0.216</v>
+      </c>
+      <c r="M247">
+        <v>1.022</v>
+      </c>
+      <c r="N247">
+        <v>11.73</v>
+      </c>
+      <c r="O247">
+        <v>0.37</v>
+      </c>
+      <c r="P247">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q247">
+        <v>0.34</v>
+      </c>
+      <c r="R247">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S247">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="T247">
+        <v>1.3720000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>267</v>
+      </c>
+      <c r="B248">
+        <v>155005</v>
+      </c>
+      <c r="C248" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" t="s">
+        <v>268</v>
+      </c>
+      <c r="E248" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G248">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H248">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I248">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="J248">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="K248">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L248">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M248">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N248">
+        <v>2.74</v>
+      </c>
+      <c r="O248">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P248">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q248">
+        <v>0.186</v>
+      </c>
+      <c r="R248">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="S248">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="T248">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>269</v>
+      </c>
+      <c r="B249">
+        <v>155006</v>
+      </c>
+      <c r="C249" t="s">
+        <v>47</v>
+      </c>
+      <c r="D249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249">
+        <v>0.371</v>
+      </c>
+      <c r="G249">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H249">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I249">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="J249">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K249">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L249">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="M249">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="N249">
+        <v>3.04</v>
+      </c>
+      <c r="O249">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="P249">
+        <v>0.153</v>
+      </c>
+      <c r="Q249">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="R249">
+        <v>0.08</v>
+      </c>
+      <c r="S249">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="T249">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>269</v>
+      </c>
+      <c r="B250">
+        <v>155006</v>
+      </c>
+      <c r="C250" t="s">
+        <v>40</v>
+      </c>
+      <c r="D250" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G250">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H250">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I250">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="J250">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="K250">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L250">
+        <v>0.151</v>
+      </c>
+      <c r="M250">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N250">
+        <v>5.71</v>
+      </c>
+      <c r="O250">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="P250">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Q250">
+        <v>0.246</v>
+      </c>
+      <c r="R250">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S250">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="T250">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251">
+        <v>155008</v>
+      </c>
+      <c r="C251" t="s">
+        <v>47</v>
+      </c>
+      <c r="D251" t="s">
+        <v>83</v>
+      </c>
+      <c r="E251" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G251">
+        <v>0.372</v>
+      </c>
+      <c r="H251">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I251">
+        <v>5.1630000000000003</v>
+      </c>
+      <c r="J251">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="K251">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L251">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M251">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N251">
+        <v>4.09</v>
+      </c>
+      <c r="O251">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0.06</v>
+      </c>
+      <c r="R251">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="S251">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="T251">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252">
+        <v>155008</v>
+      </c>
+      <c r="C252" t="s">
+        <v>40</v>
+      </c>
+      <c r="D252" t="s">
+        <v>57</v>
+      </c>
+      <c r="E252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G252">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H252">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I252">
+        <v>4.4020000000000001</v>
+      </c>
+      <c r="J252">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="K252">
+        <v>0.04</v>
+      </c>
+      <c r="L252">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="M252">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="N252">
+        <v>5.35</v>
+      </c>
+      <c r="O252">
+        <v>0.248</v>
+      </c>
+      <c r="P252">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Q252">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R252">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S252">
+        <v>0.8</v>
+      </c>
+      <c r="T252">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>271</v>
+      </c>
+      <c r="B253">
+        <v>155013</v>
+      </c>
+      <c r="C253" t="s">
+        <v>47</v>
+      </c>
+      <c r="D253" t="s">
+        <v>83</v>
+      </c>
+      <c r="E253" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253">
+        <v>0.107</v>
+      </c>
+      <c r="G253">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H253">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I253">
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="J253">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K253">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L253">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M253">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N253">
+        <v>3.95</v>
+      </c>
+      <c r="O253">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="P253">
+        <v>0.21</v>
+      </c>
+      <c r="Q253">
+        <v>0.19</v>
+      </c>
+      <c r="R253">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="S253">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="T253">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>271</v>
+      </c>
+      <c r="B254">
+        <v>155013</v>
+      </c>
+      <c r="C254" t="s">
+        <v>40</v>
+      </c>
+      <c r="D254" t="s">
+        <v>57</v>
+      </c>
+      <c r="E254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G254">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H254">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I254">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="J254">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="K254">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L254">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="M254">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="N254">
+        <v>3.68</v>
+      </c>
+      <c r="O254">
+        <v>0.192</v>
+      </c>
+      <c r="P254">
+        <v>0.19</v>
+      </c>
+      <c r="Q254">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="R254">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S254">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="T254">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>272</v>
+      </c>
+      <c r="B255">
+        <v>155015</v>
+      </c>
+      <c r="C255" t="s">
+        <v>47</v>
+      </c>
+      <c r="D255" t="s">
+        <v>50</v>
+      </c>
+      <c r="E255" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G255">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="H255">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I255">
+        <v>2.988</v>
+      </c>
+      <c r="J255">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K255">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L255">
+        <v>0.21</v>
+      </c>
+      <c r="M255">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N255">
+        <v>3.26</v>
+      </c>
+      <c r="O255">
+        <v>0.214</v>
+      </c>
+      <c r="P255">
+        <v>0.187</v>
+      </c>
+      <c r="Q255">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="R255">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S255">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="T255">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>273</v>
+      </c>
+      <c r="B256">
+        <v>155024</v>
+      </c>
+      <c r="C256" t="s">
+        <v>88</v>
+      </c>
+      <c r="D256" t="s">
+        <v>208</v>
+      </c>
+      <c r="E256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F256">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G256">
+        <v>0.499</v>
+      </c>
+      <c r="H256">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I256">
+        <v>10.72</v>
+      </c>
+      <c r="J256">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K256">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L256">
+        <v>0.215</v>
+      </c>
+      <c r="M256">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="N256">
+        <v>4.08</v>
+      </c>
+      <c r="O256">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P256">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q256">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="R256">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S256">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="T256">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>274</v>
+      </c>
+      <c r="B257">
+        <v>155025</v>
+      </c>
+      <c r="C257" t="s">
+        <v>88</v>
+      </c>
+      <c r="D257" t="s">
+        <v>275</v>
+      </c>
+      <c r="E257" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G257">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="H257">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I257">
+        <v>3.37</v>
+      </c>
+      <c r="J257">
+        <v>0.6</v>
+      </c>
+      <c r="K257">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L257">
+        <v>0.39</v>
+      </c>
+      <c r="M257">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N257">
+        <v>3.06</v>
+      </c>
+      <c r="O257">
+        <v>0.186</v>
+      </c>
+      <c r="P257">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q257">
+        <v>0.25</v>
+      </c>
+      <c r="R257">
+        <v>0.125</v>
+      </c>
+      <c r="S257">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="T257">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>276</v>
+      </c>
+      <c r="B258">
+        <v>157004</v>
+      </c>
+      <c r="C258" t="s">
+        <v>40</v>
+      </c>
+      <c r="D258" t="s">
+        <v>57</v>
+      </c>
+      <c r="E258" t="s">
+        <v>38</v>
+      </c>
+      <c r="F258">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G258">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H258">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I258">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="J258">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K258">
+        <v>0.03</v>
+      </c>
+      <c r="L258">
+        <v>0.247</v>
+      </c>
+      <c r="M258">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="N258">
+        <v>4.01</v>
+      </c>
+      <c r="O258">
+        <v>0.18</v>
+      </c>
+      <c r="P258">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q258">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="R258">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S258">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="T258">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>277</v>
+      </c>
+      <c r="B259">
+        <v>162012</v>
+      </c>
+      <c r="C259" t="s">
+        <v>88</v>
+      </c>
+      <c r="D259" t="s">
+        <v>278</v>
+      </c>
+      <c r="E259" t="s">
+        <v>38</v>
+      </c>
+      <c r="F259">
+        <v>0.124</v>
+      </c>
+      <c r="G259">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H259">
+        <v>0.11</v>
+      </c>
+      <c r="I259">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="J259">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K259">
+        <v>0.03</v>
+      </c>
+      <c r="L259">
+        <v>0.114</v>
+      </c>
+      <c r="M259">
+        <v>0.26</v>
+      </c>
+      <c r="N259">
+        <v>2.79</v>
+      </c>
+      <c r="O259">
+        <v>0.38</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="S259">
+        <v>0.98</v>
+      </c>
+      <c r="T259">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>279</v>
+      </c>
+      <c r="B260">
+        <v>166003</v>
+      </c>
+      <c r="C260" t="s">
+        <v>172</v>
+      </c>
+      <c r="D260" t="s">
+        <v>73</v>
+      </c>
+      <c r="E260" t="s">
+        <v>38</v>
+      </c>
+      <c r="F260">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G260">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H260">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I260">
+        <v>9.2680000000000007</v>
+      </c>
+      <c r="J260">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="K260">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L260">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M260">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="N260">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O260">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P260">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="Q260">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R260">
+        <v>0.22</v>
+      </c>
+      <c r="S260">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="T260">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>280</v>
+      </c>
+      <c r="B261">
+        <v>168001</v>
+      </c>
+      <c r="C261" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261" t="s">
+        <v>202</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G261">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="H261">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I261">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="J261">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="K261">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L261">
+        <v>0.151</v>
+      </c>
+      <c r="M261">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="N261">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="O261">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="P261">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q261">
+        <v>0.311</v>
+      </c>
+      <c r="R261">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="S261">
+        <v>0.996</v>
+      </c>
+      <c r="T261">
+        <v>0.1203</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>281</v>
+      </c>
+      <c r="B262">
+        <v>168005</v>
+      </c>
+      <c r="C262" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" t="s">
+        <v>78</v>
+      </c>
+      <c r="E262" t="s">
+        <v>262</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>1.093</v>
+      </c>
+      <c r="H262">
+        <v>0.108</v>
+      </c>
+      <c r="I262">
+        <v>1.819</v>
+      </c>
+      <c r="J262">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K262">
+        <v>0.128</v>
+      </c>
+      <c r="L262">
+        <v>0.47</v>
+      </c>
+      <c r="M262">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="N262">
+        <v>25.74</v>
+      </c>
+      <c r="O262">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="P262">
+        <v>0.39</v>
+      </c>
+      <c r="Q262">
+        <v>0.48</v>
+      </c>
+      <c r="R262">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="S262">
+        <v>1.87</v>
+      </c>
+      <c r="T262">
+        <v>4.4850000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>282</v>
+      </c>
+      <c r="B263">
+        <v>174003</v>
+      </c>
+      <c r="C263" t="s">
+        <v>40</v>
+      </c>
+      <c r="D263" t="s">
+        <v>283</v>
+      </c>
+      <c r="E263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F263">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="G263">
+        <v>0.442</v>
+      </c>
+      <c r="H263">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I263">
+        <v>4.3419999999999996</v>
+      </c>
+      <c r="J263">
+        <v>0.128</v>
+      </c>
+      <c r="K263">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L263">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M263">
+        <v>0.255</v>
+      </c>
+      <c r="N263">
+        <v>4.46</v>
+      </c>
+      <c r="O263">
+        <v>0.215</v>
+      </c>
+      <c r="P263">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q263">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="R263">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="S263">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="T263">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>284</v>
+      </c>
+      <c r="B264">
+        <v>179016</v>
+      </c>
+      <c r="C264" t="s">
+        <v>112</v>
+      </c>
+      <c r="D264" t="s">
+        <v>283</v>
+      </c>
+      <c r="E264" t="s">
+        <v>38</v>
+      </c>
+      <c r="F264">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G264">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H264">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I264">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J264">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="K264">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L264">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="M264">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="N264">
+        <v>5.44</v>
+      </c>
+      <c r="O264">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P264">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="Q264">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R264">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="S264">
+        <v>0.745</v>
+      </c>
+      <c r="T264">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>285</v>
+      </c>
+      <c r="B265">
+        <v>179017</v>
+      </c>
+      <c r="C265" t="s">
+        <v>172</v>
+      </c>
+      <c r="D265" t="s">
+        <v>286</v>
+      </c>
+      <c r="E265" t="s">
+        <v>38</v>
+      </c>
+      <c r="F265">
+        <v>0.03</v>
+      </c>
+      <c r="G265">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H265">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I265">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="J265">
+        <v>0.37</v>
+      </c>
+      <c r="K265">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L265">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="M265">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="N265">
+        <v>3.5</v>
+      </c>
+      <c r="O265">
+        <v>0.183</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="S265">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="T265">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>287</v>
+      </c>
+      <c r="B266">
+        <v>179018</v>
+      </c>
+      <c r="C266" t="s">
+        <v>172</v>
+      </c>
+      <c r="D266" t="s">
+        <v>93</v>
+      </c>
+      <c r="E266" t="s">
+        <v>38</v>
+      </c>
+      <c r="F266">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G266">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H266">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I266">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="J266">
+        <v>0.248</v>
+      </c>
+      <c r="K266">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L266">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M266">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="N266">
+        <v>3.99</v>
+      </c>
+      <c r="O266">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="P266">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q266">
+        <v>0.05</v>
+      </c>
+      <c r="R266">
+        <v>0.104</v>
+      </c>
+      <c r="S266">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="T266">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>287</v>
+      </c>
+      <c r="B267">
+        <v>179018</v>
+      </c>
+      <c r="C267" t="s">
+        <v>112</v>
+      </c>
+      <c r="D267" t="s">
+        <v>90</v>
+      </c>
+      <c r="E267" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267">
+        <v>0.11</v>
+      </c>
+      <c r="G267">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H267">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I267">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="J267">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K267">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L267">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M267">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="N267">
+        <v>4.18</v>
+      </c>
+      <c r="O267">
+        <v>0.184</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R267">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="S267">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="T267">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>288</v>
+      </c>
+      <c r="B268">
+        <v>179019</v>
+      </c>
+      <c r="C268" t="s">
+        <v>172</v>
+      </c>
+      <c r="D268" t="s">
+        <v>73</v>
+      </c>
+      <c r="E268" t="s">
+        <v>38</v>
+      </c>
+      <c r="F268">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G268">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H268">
+        <v>0.09</v>
+      </c>
+      <c r="I268">
+        <v>2.16</v>
+      </c>
+      <c r="J268">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K268">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L268">
+        <v>0.187</v>
+      </c>
+      <c r="M268">
+        <v>0.48</v>
+      </c>
+      <c r="N268">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O268">
+        <v>0.254</v>
+      </c>
+      <c r="P268">
+        <v>0.115</v>
+      </c>
+      <c r="Q268">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="R268">
+        <v>0.113</v>
+      </c>
+      <c r="S268">
+        <v>0.877</v>
+      </c>
+      <c r="T268">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>288</v>
+      </c>
+      <c r="B269">
+        <v>179019</v>
+      </c>
+      <c r="C269" t="s">
+        <v>112</v>
+      </c>
+      <c r="D269" t="s">
+        <v>162</v>
+      </c>
+      <c r="E269" t="s">
+        <v>38</v>
+      </c>
+      <c r="F269">
+        <v>0.02</v>
+      </c>
+      <c r="G269">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H269">
+        <v>0.06</v>
+      </c>
+      <c r="I269">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="J269">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K269">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L269">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M269">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N269">
+        <v>4.2</v>
+      </c>
+      <c r="O269">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P269">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q269">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="R269">
+        <v>0.104</v>
+      </c>
+      <c r="S269">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="T269">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>289</v>
+      </c>
+      <c r="B270">
+        <v>179020</v>
+      </c>
+      <c r="C270" t="s">
+        <v>36</v>
+      </c>
+      <c r="D270" t="s">
+        <v>78</v>
+      </c>
+      <c r="E270" t="s">
+        <v>38</v>
+      </c>
+      <c r="F270">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G270">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H270">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I270">
+        <v>1.994</v>
+      </c>
+      <c r="J270">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="K270">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L270">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="M270">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N270">
+        <v>4.37</v>
+      </c>
+      <c r="O270">
+        <v>0.153</v>
+      </c>
+      <c r="P270">
+        <v>0.37</v>
+      </c>
+      <c r="Q270">
+        <v>0.217</v>
+      </c>
+      <c r="R270">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S270">
+        <v>0.621</v>
+      </c>
+      <c r="T270">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>289</v>
+      </c>
+      <c r="B271">
+        <v>179020</v>
+      </c>
+      <c r="C271" t="s">
+        <v>172</v>
+      </c>
+      <c r="D271" t="s">
+        <v>93</v>
+      </c>
+      <c r="E271" t="s">
+        <v>38</v>
+      </c>
+      <c r="F271">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G271">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="H271">
+        <v>0.08</v>
+      </c>
+      <c r="I271">
+        <v>2.133</v>
+      </c>
+      <c r="J271">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K271">
+        <v>0.02</v>
+      </c>
+      <c r="L271">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M271">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N271">
+        <v>5.05</v>
+      </c>
+      <c r="O271">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="P271">
+        <v>0.35</v>
+      </c>
+      <c r="Q271">
+        <v>0.16</v>
+      </c>
+      <c r="R271">
+        <v>0.105</v>
+      </c>
+      <c r="S271">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="T271">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>289</v>
+      </c>
+      <c r="B272">
+        <v>179020</v>
+      </c>
+      <c r="C272" t="s">
+        <v>112</v>
+      </c>
+      <c r="D272" t="s">
+        <v>151</v>
+      </c>
+      <c r="E272" t="s">
+        <v>38</v>
+      </c>
+      <c r="F272">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G272">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H272">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I272">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="J272">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="K272">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L272">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="M272">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N272">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="O272">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P272">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q272">
+        <v>0.25</v>
+      </c>
+      <c r="R272">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="S272">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="T272">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>290</v>
+      </c>
+      <c r="B273">
+        <v>179028</v>
+      </c>
+      <c r="C273" t="s">
+        <v>172</v>
+      </c>
+      <c r="D273" t="s">
+        <v>291</v>
+      </c>
+      <c r="E273" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G273">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="H273">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I273">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="J273">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K273">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L273">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="M273">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N273">
+        <v>4.67</v>
+      </c>
+      <c r="O273">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P273">
+        <v>0.19</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>0.115</v>
+      </c>
+      <c r="S273">
+        <v>0.51</v>
+      </c>
+      <c r="T273">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>292</v>
+      </c>
+      <c r="B274">
+        <v>179029</v>
+      </c>
+      <c r="C274" t="s">
+        <v>172</v>
+      </c>
+      <c r="D274" t="s">
+        <v>98</v>
+      </c>
+      <c r="E274" t="s">
+        <v>38</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0.71</v>
+      </c>
+      <c r="H274">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I274">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="J274">
+        <v>0.3</v>
+      </c>
+      <c r="K274">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L274">
+        <v>0.18</v>
+      </c>
+      <c r="M274">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S274">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="T274">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>293</v>
+      </c>
+      <c r="B275">
+        <v>183002</v>
+      </c>
+      <c r="C275" t="s">
+        <v>43</v>
+      </c>
+      <c r="D275" t="s">
+        <v>117</v>
+      </c>
+      <c r="E275" t="s">
+        <v>38</v>
+      </c>
+      <c r="F275">
+        <v>0.4</v>
+      </c>
+      <c r="G275">
+        <v>0.19</v>
+      </c>
+      <c r="H275">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I275">
+        <v>5.84</v>
+      </c>
+      <c r="J275">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K275">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L275">
+        <v>0.06</v>
+      </c>
+      <c r="M275">
+        <v>0.19</v>
+      </c>
+      <c r="N275">
+        <v>12.64</v>
+      </c>
+      <c r="O275">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S275">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="T275">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>294</v>
+      </c>
+      <c r="B276">
+        <v>185022</v>
+      </c>
+      <c r="C276" t="s">
+        <v>43</v>
+      </c>
+      <c r="D276" t="s">
+        <v>123</v>
+      </c>
+      <c r="E276" t="s">
+        <v>38</v>
+      </c>
+      <c r="F276">
+        <v>0.253</v>
+      </c>
+      <c r="G276">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H276">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I276">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="J276">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="K276">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L276">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M276">
+        <v>0.37</v>
+      </c>
+      <c r="N276">
+        <v>4.07</v>
+      </c>
+      <c r="O276">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="P276">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="Q276">
+        <v>0.47</v>
+      </c>
+      <c r="R276">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="S276">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="T276">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>295</v>
+      </c>
+      <c r="B277">
+        <v>187005</v>
+      </c>
+      <c r="C277" t="s">
+        <v>36</v>
+      </c>
+      <c r="D277" t="s">
+        <v>37</v>
+      </c>
+      <c r="E277" t="s">
+        <v>296</v>
+      </c>
+      <c r="F277">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G277">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H277">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="I277">
+        <v>14.259</v>
+      </c>
+      <c r="J277">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K277">
+        <v>0.64</v>
+      </c>
+      <c r="L277">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M277">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="N277">
+        <v>18.04</v>
+      </c>
+      <c r="O277">
+        <v>2.93</v>
+      </c>
+      <c r="P277">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="Q277">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="R277">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="S277">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="T277">
+        <v>1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>297</v>
+      </c>
+      <c r="B278">
+        <v>187008</v>
+      </c>
+      <c r="C278" t="s">
+        <v>36</v>
+      </c>
+      <c r="D278" t="s">
+        <v>298</v>
+      </c>
+      <c r="E278" t="s">
+        <v>296</v>
+      </c>
+      <c r="F278">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G278">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H278">
+        <v>0.188</v>
+      </c>
+      <c r="I278">
+        <v>13.991</v>
+      </c>
+      <c r="J278">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K278">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="L278">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="M278">
+        <v>0.74</v>
+      </c>
+      <c r="N278">
+        <v>7.91</v>
+      </c>
+      <c r="O278">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="P278">
+        <v>0.4</v>
+      </c>
+      <c r="Q278">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="R278">
+        <v>0.245</v>
+      </c>
+      <c r="S278">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="T278">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>299</v>
+      </c>
+      <c r="B279">
+        <v>188003</v>
+      </c>
+      <c r="C279" t="s">
+        <v>43</v>
+      </c>
+      <c r="D279" t="s">
+        <v>123</v>
+      </c>
+      <c r="E279" t="s">
+        <v>300</v>
+      </c>
+      <c r="F279">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G279">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H279">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I279">
+        <v>4.1420000000000003</v>
+      </c>
+      <c r="J279">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="K279">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L279">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M279">
+        <v>9.2609999999999992</v>
+      </c>
+      <c r="N279">
+        <v>11.37</v>
+      </c>
+      <c r="O279">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="P279">
+        <v>0.19</v>
+      </c>
+      <c r="Q279">
+        <v>0.41</v>
+      </c>
+      <c r="R279">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="S279">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T279">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>301</v>
+      </c>
+      <c r="B280">
+        <v>188006</v>
+      </c>
+      <c r="C280" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280" t="s">
+        <v>160</v>
+      </c>
+      <c r="E280" t="s">
+        <v>262</v>
+      </c>
+      <c r="F280">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G280">
+        <v>0.749</v>
+      </c>
+      <c r="H280">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="I280">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="J280">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="K280">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L280">
+        <v>0.193</v>
+      </c>
+      <c r="M280">
+        <v>25.39</v>
+      </c>
+      <c r="N280">
+        <v>21.27</v>
+      </c>
+      <c r="O280">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="P280">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="Q280">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="R280">
+        <v>0.433</v>
+      </c>
+      <c r="S280">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="T280">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>302</v>
+      </c>
+      <c r="B281">
+        <v>188014</v>
+      </c>
+      <c r="C281" t="s">
+        <v>43</v>
+      </c>
+      <c r="D281" t="s">
+        <v>154</v>
+      </c>
+      <c r="E281" t="s">
+        <v>300</v>
+      </c>
+      <c r="F281">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G281">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H281">
+        <v>0.106</v>
+      </c>
+      <c r="I281">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="J281">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K281">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L281">
+        <v>0.252</v>
+      </c>
+      <c r="M281">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="N281">
+        <v>10.87</v>
+      </c>
+      <c r="O281">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281">
+        <v>0.13</v>
+      </c>
+      <c r="R281">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S281">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="T281">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>303</v>
+      </c>
+      <c r="B282">
+        <v>189001</v>
+      </c>
+      <c r="C282" t="s">
+        <v>43</v>
+      </c>
+      <c r="D282" t="s">
+        <v>193</v>
+      </c>
+      <c r="E282" t="s">
+        <v>296</v>
+      </c>
+      <c r="F282">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G282">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="H282">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="I282">
+        <v>2.927</v>
+      </c>
+      <c r="J282">
+        <v>0.251</v>
+      </c>
+      <c r="K282">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L282">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="M282">
+        <v>160.55199999999999</v>
+      </c>
+      <c r="N282">
+        <v>833.83</v>
+      </c>
+      <c r="O282">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="P282">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q282">
+        <v>0.621</v>
+      </c>
+      <c r="R282">
+        <v>5.4859999999999998</v>
+      </c>
+      <c r="S282">
+        <v>1.157</v>
+      </c>
+      <c r="T282">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>303</v>
+      </c>
+      <c r="B283">
+        <v>189001</v>
+      </c>
+      <c r="C283" t="s">
+        <v>47</v>
+      </c>
+      <c r="D283" t="s">
+        <v>48</v>
+      </c>
+      <c r="E283" t="s">
+        <v>296</v>
+      </c>
+      <c r="F283">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G283">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H283">
+        <v>0.504</v>
+      </c>
+      <c r="I283">
+        <v>11.709</v>
+      </c>
+      <c r="J283">
+        <v>0.625</v>
+      </c>
+      <c r="K283">
+        <v>0.378</v>
+      </c>
+      <c r="L283">
+        <v>0.437</v>
+      </c>
+      <c r="M283">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="N283">
+        <v>179.38</v>
+      </c>
+      <c r="O283">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="P283">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="Q283">
+        <v>1.734</v>
+      </c>
+      <c r="R283">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="S283">
+        <v>1.389</v>
+      </c>
+      <c r="T283">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>303</v>
+      </c>
+      <c r="B284">
+        <v>189001</v>
+      </c>
+      <c r="C284" t="s">
+        <v>40</v>
+      </c>
+      <c r="D284" t="s">
+        <v>56</v>
+      </c>
+      <c r="E284" t="s">
+        <v>296</v>
+      </c>
+      <c r="F284">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G284">
+        <v>1.383</v>
+      </c>
+      <c r="H284">
+        <v>1.026</v>
+      </c>
+      <c r="I284">
+        <v>4.17</v>
+      </c>
+      <c r="J284">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K284">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="L284">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="M284">
+        <v>18.963999999999999</v>
+      </c>
+      <c r="N284">
+        <v>521.16999999999996</v>
+      </c>
+      <c r="O284">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="P284">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Q284">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="R284">
+        <v>18.420999999999999</v>
+      </c>
+      <c r="S284">
+        <v>1.831</v>
+      </c>
+      <c r="T284">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>304</v>
+      </c>
+      <c r="B285">
+        <v>189002</v>
+      </c>
+      <c r="C285" t="s">
+        <v>36</v>
+      </c>
+      <c r="D285" t="s">
+        <v>48</v>
+      </c>
+      <c r="E285" t="s">
+        <v>296</v>
+      </c>
+      <c r="F285">
+        <v>0.111</v>
+      </c>
+      <c r="G285">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H285">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="I285">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="J285">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="K285">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L285">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="M285">
+        <v>18.559000000000001</v>
+      </c>
+      <c r="N285">
+        <v>119.71</v>
+      </c>
+      <c r="O285">
+        <v>0.501</v>
+      </c>
+      <c r="P285">
+        <v>0.253</v>
+      </c>
+      <c r="Q285">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R285">
+        <v>10.15</v>
+      </c>
+      <c r="S285">
+        <v>1.079</v>
+      </c>
+      <c r="T285">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>304</v>
+      </c>
+      <c r="B286">
+        <v>189002</v>
+      </c>
+      <c r="C286" t="s">
+        <v>172</v>
+      </c>
+      <c r="D286" t="s">
+        <v>90</v>
+      </c>
+      <c r="E286" t="s">
+        <v>305</v>
+      </c>
+      <c r="F286">
+        <v>0.05</v>
+      </c>
+      <c r="G286">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H286">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="I286">
+        <v>3.379</v>
+      </c>
+      <c r="J286">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K286">
+        <v>0.435</v>
+      </c>
+      <c r="L286">
+        <v>0.252</v>
+      </c>
+      <c r="M286">
+        <v>14.371</v>
+      </c>
+      <c r="N286">
+        <v>461.3</v>
+      </c>
+      <c r="O286">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P286">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q286">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R286">
+        <v>7.2329999999999997</v>
+      </c>
+      <c r="S286">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="T286">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>304</v>
+      </c>
+      <c r="B287">
+        <v>189002</v>
+      </c>
+      <c r="C287" t="s">
+        <v>172</v>
+      </c>
+      <c r="D287" t="s">
+        <v>73</v>
+      </c>
+      <c r="E287" t="s">
+        <v>306</v>
+      </c>
+      <c r="F287">
+        <v>0.06</v>
+      </c>
+      <c r="G287">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H287">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="I287">
+        <v>2.762</v>
+      </c>
+      <c r="J287">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="K287">
+        <v>0.155</v>
+      </c>
+      <c r="L287">
+        <v>0.152</v>
+      </c>
+      <c r="M287">
+        <v>13.516</v>
+      </c>
+      <c r="N287">
+        <v>112.95</v>
+      </c>
+      <c r="O287">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="P287">
+        <v>0.21</v>
+      </c>
+      <c r="Q287">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="R287">
+        <v>4.9429999999999996</v>
+      </c>
+      <c r="S287">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="T287">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>307</v>
+      </c>
+      <c r="B288">
+        <v>190013</v>
+      </c>
+      <c r="C288" t="s">
+        <v>43</v>
+      </c>
+      <c r="D288" t="s">
+        <v>74</v>
+      </c>
+      <c r="E288" t="s">
+        <v>308</v>
+      </c>
+      <c r="F288">
+        <v>0.05</v>
+      </c>
+      <c r="G288">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H288">
+        <v>9.75</v>
+      </c>
+      <c r="I288">
+        <v>3.3</v>
+      </c>
+      <c r="J288">
+        <v>0.98</v>
+      </c>
+      <c r="K288">
+        <v>0.35</v>
+      </c>
+      <c r="L288">
+        <v>0.2</v>
+      </c>
+      <c r="M288">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N288">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="O288">
+        <v>0.39</v>
+      </c>
+      <c r="P288">
+        <v>15.63</v>
+      </c>
+      <c r="Q288">
+        <v>1.25</v>
+      </c>
+      <c r="R288">
+        <v>0.88</v>
+      </c>
+      <c r="S288">
+        <v>0.38</v>
+      </c>
+      <c r="T288">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>309</v>
+      </c>
+      <c r="B289">
+        <v>190014</v>
+      </c>
+      <c r="C289" t="s">
+        <v>47</v>
+      </c>
+      <c r="D289" t="s">
+        <v>310</v>
+      </c>
+      <c r="E289" t="s">
+        <v>308</v>
+      </c>
+      <c r="F289">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G289">
+        <v>0.38</v>
+      </c>
+      <c r="H289">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I289">
+        <v>2.577</v>
+      </c>
+      <c r="J289">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="K289">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L289">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="M289">
+        <v>0.38</v>
+      </c>
+      <c r="N289">
+        <v>14.47</v>
+      </c>
+      <c r="O289">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="P289">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="Q289">
+        <v>0.31</v>
+      </c>
+      <c r="R289">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="S289">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="T289">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>311</v>
+      </c>
+      <c r="B290">
+        <v>190016</v>
+      </c>
+      <c r="C290" t="s">
+        <v>47</v>
+      </c>
+      <c r="D290" t="s">
+        <v>50</v>
+      </c>
+      <c r="E290" t="s">
+        <v>296</v>
+      </c>
+      <c r="F290">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G290">
+        <v>1.024</v>
+      </c>
+      <c r="H290">
+        <v>1.389</v>
+      </c>
+      <c r="I290">
+        <v>8.92</v>
+      </c>
+      <c r="J290">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="K290">
+        <v>0.114</v>
+      </c>
+      <c r="L290">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="M290">
+        <v>5.46</v>
+      </c>
+      <c r="N290">
+        <v>12.12</v>
+      </c>
+      <c r="O290">
+        <v>1.347</v>
+      </c>
+      <c r="P290">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Q290">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="R290">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="S290">
+        <v>1.456</v>
+      </c>
+      <c r="T290">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>312</v>
+      </c>
+      <c r="B291">
+        <v>190028</v>
+      </c>
+      <c r="C291" t="s">
+        <v>112</v>
+      </c>
+      <c r="D291" t="s">
+        <v>313</v>
+      </c>
+      <c r="E291" t="s">
+        <v>308</v>
+      </c>
+      <c r="F291">
+        <v>0.02</v>
+      </c>
+      <c r="G291">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H291">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I291">
+        <v>2.35</v>
+      </c>
+      <c r="J291">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K291">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L291">
+        <v>0.314</v>
+      </c>
+      <c r="M291">
+        <v>0.218</v>
+      </c>
+      <c r="N291">
+        <v>8.27</v>
+      </c>
+      <c r="O291">
+        <v>0.25</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>0.114</v>
+      </c>
+      <c r="S291">
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>314</v>
+      </c>
+      <c r="B292">
+        <v>191001</v>
+      </c>
+      <c r="C292" t="s">
+        <v>43</v>
+      </c>
+      <c r="D292" t="s">
+        <v>193</v>
+      </c>
+      <c r="E292" t="s">
+        <v>315</v>
+      </c>
+      <c r="F292">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G292">
+        <v>1.236</v>
+      </c>
+      <c r="H292">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="I292">
+        <v>6.6449999999999996</v>
+      </c>
+      <c r="J292">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="K292">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L292">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M292">
+        <v>5.1680000000000001</v>
+      </c>
+      <c r="N292">
+        <v>27.41</v>
+      </c>
+      <c r="O292">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="P292">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q292">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="R292">
+        <v>17.111000000000001</v>
+      </c>
+      <c r="S292">
+        <v>1.099</v>
+      </c>
+      <c r="T292">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>314</v>
+      </c>
+      <c r="B293">
+        <v>191001</v>
+      </c>
+      <c r="C293" t="s">
+        <v>43</v>
+      </c>
+      <c r="D293" t="s">
+        <v>62</v>
+      </c>
+      <c r="E293" t="s">
+        <v>316</v>
+      </c>
+      <c r="F293">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G293">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H293">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I293">
+        <v>2.097</v>
+      </c>
+      <c r="J293">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="K293">
+        <v>0.128</v>
+      </c>
+      <c r="L293">
+        <v>0.188</v>
+      </c>
+      <c r="M293">
+        <v>1.446</v>
+      </c>
+      <c r="N293">
+        <v>10.65</v>
+      </c>
+      <c r="O293">
+        <v>0.93</v>
+      </c>
+      <c r="P293">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Q293">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="R293">
+        <v>1.629</v>
+      </c>
+      <c r="S293">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="T293">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>317</v>
+      </c>
+      <c r="B294">
+        <v>191003</v>
+      </c>
+      <c r="C294" t="s">
+        <v>172</v>
+      </c>
+      <c r="D294" t="s">
+        <v>162</v>
+      </c>
+      <c r="E294" t="s">
+        <v>318</v>
+      </c>
+      <c r="F294">
+        <v>0.1</v>
+      </c>
+      <c r="G294">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H294">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I294">
+        <v>8.27</v>
+      </c>
+      <c r="J294">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K294">
+        <v>0.214</v>
+      </c>
+      <c r="L294">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="M294">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="N294">
+        <v>14.42</v>
+      </c>
+      <c r="O294">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="P294">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="Q294">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="R294">
+        <v>1.361</v>
+      </c>
+      <c r="S294">
+        <v>1.224</v>
+      </c>
+      <c r="T294">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>317</v>
+      </c>
+      <c r="B295">
+        <v>191003</v>
+      </c>
+      <c r="C295" t="s">
+        <v>172</v>
+      </c>
+      <c r="D295" t="s">
+        <v>93</v>
+      </c>
+      <c r="E295" t="s">
+        <v>296</v>
+      </c>
+      <c r="F295">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G295">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="H295">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I295">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="J295">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K295">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="L295">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="M295">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="N295">
+        <v>2.84</v>
+      </c>
+      <c r="O295">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P295">
+        <v>0.13</v>
+      </c>
+      <c r="Q295">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="R295">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="S295">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T295">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>319</v>
+      </c>
+      <c r="B296">
+        <v>191008</v>
+      </c>
+      <c r="C296" t="s">
+        <v>112</v>
+      </c>
+      <c r="D296" t="s">
+        <v>162</v>
+      </c>
+      <c r="E296" t="s">
+        <v>296</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0.25</v>
+      </c>
+      <c r="H296">
+        <v>0.16</v>
+      </c>
+      <c r="I296">
+        <v>4.05</v>
+      </c>
+      <c r="J296">
+        <v>0.45</v>
+      </c>
+      <c r="K296">
+        <v>0.11</v>
+      </c>
+      <c r="L296">
+        <v>0.13</v>
+      </c>
+      <c r="M296">
+        <v>3.75</v>
+      </c>
+      <c r="N296">
+        <v>5.38</v>
+      </c>
+      <c r="O296">
+        <v>0.71</v>
+      </c>
+      <c r="P296">
+        <v>0.16</v>
+      </c>
+      <c r="Q296">
+        <v>0.13</v>
+      </c>
+      <c r="R296">
+        <v>0.89</v>
+      </c>
+      <c r="S296">
+        <v>0.91</v>
+      </c>
+      <c r="T296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>320</v>
+      </c>
+      <c r="B297">
+        <v>192003</v>
+      </c>
+      <c r="C297" t="s">
+        <v>47</v>
+      </c>
+      <c r="D297" t="s">
+        <v>185</v>
+      </c>
+      <c r="E297" t="s">
+        <v>321</v>
+      </c>
+      <c r="F297">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G297">
+        <v>0.66</v>
+      </c>
+      <c r="H297">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I297">
+        <v>48.34</v>
+      </c>
+      <c r="J297">
+        <v>0.755</v>
+      </c>
+      <c r="K297">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L297">
+        <v>0.193</v>
+      </c>
+      <c r="M297">
+        <v>3.069</v>
+      </c>
+      <c r="N297">
+        <v>12.06</v>
+      </c>
+      <c r="O297">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="P297">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Q297">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="R297">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="S297">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="T297">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>322</v>
+      </c>
+      <c r="B298">
+        <v>192004</v>
+      </c>
+      <c r="C298" t="s">
+        <v>47</v>
+      </c>
+      <c r="D298" t="s">
+        <v>56</v>
+      </c>
+      <c r="E298" t="s">
+        <v>321</v>
+      </c>
+      <c r="F298">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G298">
+        <v>0.751</v>
+      </c>
+      <c r="H298">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I298">
+        <v>5.7560000000000002</v>
+      </c>
+      <c r="J298">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="K298">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L298">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="M298">
+        <v>2.165</v>
+      </c>
+      <c r="N298">
+        <v>11.07</v>
+      </c>
+      <c r="O298">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="P298">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q298">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="R298">
+        <v>0.35</v>
+      </c>
+      <c r="S298">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="T298">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>322</v>
+      </c>
+      <c r="B299">
+        <v>192004</v>
+      </c>
+      <c r="C299" t="s">
+        <v>40</v>
+      </c>
+      <c r="D299" t="s">
+        <v>89</v>
+      </c>
+      <c r="E299" t="s">
+        <v>321</v>
+      </c>
+      <c r="F299">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G299">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H299">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I299">
+        <v>2.569</v>
+      </c>
+      <c r="J299">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K299">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L299">
+        <v>0.218</v>
+      </c>
+      <c r="M299">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="N299">
+        <v>10.91</v>
+      </c>
+      <c r="O299">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="P299">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="Q299">
+        <v>0.184</v>
+      </c>
+      <c r="R299">
+        <v>1.07</v>
+      </c>
+      <c r="S299">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="T299">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>323</v>
+      </c>
+      <c r="B300">
+        <v>192005</v>
+      </c>
+      <c r="C300" t="s">
+        <v>40</v>
+      </c>
+      <c r="D300" t="s">
+        <v>89</v>
+      </c>
+      <c r="E300" t="s">
+        <v>321</v>
+      </c>
+      <c r="F300">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G300">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H300">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I300">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="J300">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="K300">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L300">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="M300">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="N300">
+        <v>11.51</v>
+      </c>
+      <c r="O300">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="P300">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q300">
+        <v>0.21</v>
+      </c>
+      <c r="R300">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="S300">
+        <v>1.071</v>
+      </c>
+      <c r="T300">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>324</v>
+      </c>
+      <c r="B301">
+        <v>192007</v>
+      </c>
+      <c r="C301" t="s">
+        <v>172</v>
+      </c>
+      <c r="D301" t="s">
+        <v>71</v>
+      </c>
+      <c r="E301" t="s">
+        <v>321</v>
+      </c>
+      <c r="F301">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G301">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H301">
+        <v>0.157</v>
+      </c>
+      <c r="I301">
+        <v>3.835</v>
+      </c>
+      <c r="J301">
+        <v>0.311</v>
+      </c>
+      <c r="K301">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="L301">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="M301">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="N301">
+        <v>11.59</v>
+      </c>
+      <c r="O301">
+        <v>0.26</v>
+      </c>
+      <c r="P301">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q301">
+        <v>0.185</v>
+      </c>
+      <c r="R301">
+        <v>0.251</v>
+      </c>
+      <c r="S301">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="T301">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>325</v>
+      </c>
+      <c r="B302">
+        <v>192010</v>
+      </c>
+      <c r="C302" t="s">
+        <v>40</v>
+      </c>
+      <c r="D302" t="s">
+        <v>41</v>
+      </c>
+      <c r="E302" t="s">
+        <v>321</v>
+      </c>
+      <c r="F302">
+        <v>0.13</v>
+      </c>
+      <c r="G302">
+        <v>0.624</v>
+      </c>
+      <c r="H302">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I302">
+        <v>8.2620000000000005</v>
+      </c>
+      <c r="J302">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K302">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L302">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M302">
+        <v>2.484</v>
+      </c>
+      <c r="N302">
+        <v>9.41</v>
+      </c>
+      <c r="O302">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="P302">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q302">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="R302">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S302">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="T302">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>325</v>
+      </c>
+      <c r="B303">
+        <v>192010</v>
+      </c>
+      <c r="C303" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" t="s">
+        <v>3</v>
+      </c>
+      <c r="E303" t="s">
+        <v>321</v>
+      </c>
+      <c r="F303">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G303">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H303">
+        <v>0.1</v>
+      </c>
+      <c r="I303">
+        <v>6.72</v>
+      </c>
+      <c r="J303">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="K303">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L303">
+        <v>0.186</v>
+      </c>
+      <c r="M303">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="N303">
+        <v>10.8</v>
+      </c>
+      <c r="O303">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="P303">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q303">
+        <v>0.3</v>
+      </c>
+      <c r="R303">
+        <v>0.374</v>
+      </c>
+      <c r="S303">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="T303">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>326</v>
+      </c>
+      <c r="B304">
+        <v>192011</v>
+      </c>
+      <c r="C304" t="s">
+        <v>43</v>
+      </c>
+      <c r="D304" t="s">
+        <v>117</v>
+      </c>
+      <c r="E304" t="s">
+        <v>321</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0.38</v>
+      </c>
+      <c r="H304">
+        <v>0.11</v>
+      </c>
+      <c r="I304">
+        <v>13.5</v>
+      </c>
+      <c r="J304">
+        <v>0.41</v>
+      </c>
+      <c r="K304">
+        <v>0.03</v>
+      </c>
+      <c r="L304">
+        <v>0.23</v>
+      </c>
+      <c r="M304">
+        <v>6.28</v>
+      </c>
+      <c r="N304">
+        <v>10.36</v>
+      </c>
+      <c r="O304">
+        <v>0.71</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>0.36</v>
+      </c>
+      <c r="S304">
+        <v>1.05</v>
+      </c>
+      <c r="T304">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>327</v>
+      </c>
+      <c r="B305">
+        <v>192012</v>
+      </c>
+      <c r="C305" t="s">
+        <v>112</v>
+      </c>
+      <c r="D305" t="s">
+        <v>313</v>
+      </c>
+      <c r="E305" t="s">
+        <v>321</v>
+      </c>
+      <c r="F305">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G305">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H305">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I305">
+        <v>4.1970000000000001</v>
+      </c>
+      <c r="J305">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K305">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L305">
+        <v>0.185</v>
+      </c>
+      <c r="M305">
+        <v>4.4029999999999996</v>
+      </c>
+      <c r="N305">
+        <v>13.68</v>
+      </c>
+      <c r="O305">
+        <v>0.309</v>
+      </c>
+      <c r="P305">
+        <v>0.155</v>
+      </c>
+      <c r="Q305">
+        <v>0.252</v>
+      </c>
+      <c r="R305">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="S305">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="T305">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>328</v>
+      </c>
+      <c r="B306">
+        <v>194002</v>
+      </c>
+      <c r="C306" t="s">
+        <v>47</v>
+      </c>
+      <c r="D306" t="s">
+        <v>84</v>
+      </c>
+      <c r="E306" t="s">
+        <v>329</v>
+      </c>
+      <c r="F306">
+        <v>0.19</v>
+      </c>
+      <c r="G306">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H306">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I306">
+        <v>13.991</v>
+      </c>
+      <c r="J306">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K306">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L306">
+        <v>0.17</v>
+      </c>
+      <c r="M306">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="N306">
+        <v>22.02</v>
+      </c>
+      <c r="O306">
+        <v>0.253</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>0.375</v>
+      </c>
+      <c r="R306">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="S306">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="T306">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>328</v>
+      </c>
+      <c r="B307">
+        <v>194002</v>
+      </c>
+      <c r="C307" t="s">
+        <v>40</v>
+      </c>
+      <c r="D307" t="s">
+        <v>57</v>
+      </c>
+      <c r="E307" t="s">
+        <v>329</v>
+      </c>
+      <c r="F307">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G307">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H307">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I307">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="J307">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="K307">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L307">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M307">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="N307">
+        <v>14.61</v>
+      </c>
+      <c r="O307">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P307">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q307">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="R307">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="S307">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="T307">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>330</v>
+      </c>
+      <c r="B308">
+        <v>194003</v>
+      </c>
+      <c r="C308" t="s">
+        <v>36</v>
+      </c>
+      <c r="D308" t="s">
+        <v>37</v>
+      </c>
+      <c r="E308" t="s">
+        <v>329</v>
+      </c>
+      <c r="F308">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G308">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H308">
+        <v>0.245</v>
+      </c>
+      <c r="I308">
+        <v>25.356000000000002</v>
+      </c>
+      <c r="J308">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="K308">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L308">
+        <v>0.129</v>
+      </c>
+      <c r="M308">
+        <v>9.8190000000000008</v>
+      </c>
+      <c r="N308">
+        <v>16.54</v>
+      </c>
+      <c r="O308">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="P308">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q308">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="R308">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="S308">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="T308">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>331</v>
+      </c>
+      <c r="B309">
+        <v>194012</v>
+      </c>
+      <c r="C309" t="s">
+        <v>43</v>
+      </c>
+      <c r="D309" t="s">
+        <v>117</v>
+      </c>
+      <c r="E309" t="s">
+        <v>332</v>
+      </c>
+      <c r="F309">
+        <v>0.115</v>
+      </c>
+      <c r="G309">
+        <v>0.495</v>
+      </c>
+      <c r="H309">
+        <v>0.2</v>
+      </c>
+      <c r="I309">
+        <v>31.65</v>
+      </c>
+      <c r="J309">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K309">
+        <v>0.495</v>
+      </c>
+      <c r="L309">
+        <v>0.185</v>
+      </c>
+      <c r="M309">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="N309">
+        <v>34.53</v>
+      </c>
+      <c r="O309">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P309">
+        <v>0.12</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>0.87</v>
+      </c>
+      <c r="S309">
+        <v>0.69</v>
+      </c>
+      <c r="T309">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>333</v>
+      </c>
+      <c r="B310">
+        <v>196001</v>
+      </c>
+      <c r="C310" t="s">
+        <v>43</v>
+      </c>
+      <c r="D310" t="s">
+        <v>75</v>
+      </c>
+      <c r="E310" t="s">
+        <v>332</v>
+      </c>
+      <c r="F310">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G310">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H310">
+        <v>0.1</v>
+      </c>
+      <c r="I310">
+        <v>3.048</v>
+      </c>
+      <c r="J310">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="K310">
+        <v>0.311</v>
+      </c>
+      <c r="L310">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="M310">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="N310">
+        <v>29.35</v>
+      </c>
+      <c r="O310">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="P310">
+        <v>0.183</v>
+      </c>
+      <c r="Q310">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="R310">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="S310">
+        <v>0.25</v>
+      </c>
+      <c r="T310">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>333</v>
+      </c>
+      <c r="B311">
+        <v>196001</v>
+      </c>
+      <c r="C311" t="s">
+        <v>47</v>
+      </c>
+      <c r="D311" t="s">
+        <v>50</v>
+      </c>
+      <c r="E311" t="s">
+        <v>332</v>
+      </c>
+      <c r="F311">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G311">
+        <v>0.755</v>
+      </c>
+      <c r="H311">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I311">
+        <v>10.33</v>
+      </c>
+      <c r="J311">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="K311">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="L311">
+        <v>0.39</v>
+      </c>
+      <c r="M311">
+        <v>11.471</v>
+      </c>
+      <c r="N311">
+        <v>35.83</v>
+      </c>
+      <c r="O311">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P311">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="Q311">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="R311">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="S311">
+        <v>1.67</v>
+      </c>
+      <c r="T311">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>333</v>
+      </c>
+      <c r="B312">
+        <v>196001</v>
+      </c>
+      <c r="C312" t="s">
+        <v>47</v>
+      </c>
+      <c r="D312" t="s">
+        <v>138</v>
+      </c>
+      <c r="E312" t="s">
+        <v>334</v>
+      </c>
+      <c r="F312">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G312">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H312">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I312">
+        <v>3.581</v>
+      </c>
+      <c r="J312">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="K312">
+        <v>0.253</v>
+      </c>
+      <c r="L312">
+        <v>0.123</v>
+      </c>
+      <c r="M312">
+        <v>11.834</v>
+      </c>
+      <c r="N312">
+        <v>30.81</v>
+      </c>
+      <c r="O312">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="P312">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q312">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="R312">
+        <v>2.008</v>
+      </c>
+      <c r="S312">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="T312">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>333</v>
+      </c>
+      <c r="B313">
+        <v>196001</v>
+      </c>
+      <c r="C313" t="s">
+        <v>40</v>
+      </c>
+      <c r="D313" t="s">
+        <v>136</v>
+      </c>
+      <c r="E313" t="s">
+        <v>334</v>
+      </c>
+      <c r="F313">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G313">
+        <v>0.877</v>
+      </c>
+      <c r="H313">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I313">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="J313">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="K313">
+        <v>0.12</v>
+      </c>
+      <c r="L313">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="M313">
+        <v>4.1429999999999998</v>
+      </c>
+      <c r="N313">
+        <v>54.06</v>
+      </c>
+      <c r="O313">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <v>0.22</v>
+      </c>
+      <c r="R313">
+        <v>1.173</v>
+      </c>
+      <c r="S313">
+        <v>0.99</v>
+      </c>
+      <c r="T313">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B314" s="2">
+        <v>196001</v>
+      </c>
+      <c r="C314" t="s">
+        <v>40</v>
+      </c>
+      <c r="D314" t="s">
+        <v>56</v>
+      </c>
+      <c r="E314" t="s">
+        <v>335</v>
+      </c>
+      <c r="F314">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G314">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H314">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I314">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="J314">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K314">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L314">
+        <v>0.16</v>
+      </c>
+      <c r="M314">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="N314">
+        <v>51.25</v>
+      </c>
+      <c r="O314">
+        <v>0.45</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>2.335</v>
+      </c>
+      <c r="S314">
+        <v>0</v>
+      </c>
+      <c r="T314">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>336</v>
+      </c>
+      <c r="B315">
+        <v>196003</v>
+      </c>
+      <c r="C315" t="s">
+        <v>43</v>
+      </c>
+      <c r="D315" t="s">
+        <v>337</v>
+      </c>
+      <c r="E315" t="s">
+        <v>338</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>0.19</v>
+      </c>
+      <c r="I315">
+        <v>7.125</v>
+      </c>
+      <c r="J315">
+        <v>1.9</v>
+      </c>
+      <c r="K315">
+        <v>0.36</v>
+      </c>
+      <c r="L315">
+        <v>0.31</v>
+      </c>
+      <c r="M315">
+        <v>9.84</v>
+      </c>
+      <c r="N315">
+        <v>43.75</v>
+      </c>
+      <c r="O315">
+        <v>0.75</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+      <c r="Q315">
+        <v>0.19</v>
+      </c>
+      <c r="R315">
+        <v>1.5</v>
+      </c>
+      <c r="S315">
+        <v>0.13</v>
+      </c>
+      <c r="T315">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>339</v>
+      </c>
+      <c r="B316">
+        <v>196006</v>
+      </c>
+      <c r="C316" t="s">
+        <v>43</v>
+      </c>
+      <c r="D316" t="s">
+        <v>151</v>
+      </c>
+      <c r="E316" t="s">
+        <v>338</v>
+      </c>
+      <c r="F316">
+        <v>0.151</v>
+      </c>
+      <c r="G316">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H316">
+        <v>0.114</v>
+      </c>
+      <c r="I316">
+        <v>11.856999999999999</v>
+      </c>
+      <c r="J316">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K316">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L316">
+        <v>0.252</v>
+      </c>
+      <c r="M316">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="N316">
+        <v>32.4</v>
+      </c>
+      <c r="O316">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P316">
+        <v>0.19</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="S316">
+        <v>0</v>
+      </c>
+      <c r="T316">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>340</v>
+      </c>
+      <c r="B317">
+        <v>196011</v>
+      </c>
+      <c r="C317" t="s">
+        <v>36</v>
+      </c>
+      <c r="D317" t="s">
+        <v>165</v>
+      </c>
+      <c r="E317" t="s">
+        <v>338</v>
+      </c>
+      <c r="F317">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G317">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H317">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I317">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="J317">
+        <v>0.46</v>
+      </c>
+      <c r="K317">
+        <v>0.126</v>
+      </c>
+      <c r="L317">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="M317">
+        <v>8.391</v>
+      </c>
+      <c r="N317">
+        <v>39.31</v>
+      </c>
+      <c r="O317">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P317">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q317">
+        <v>0.73</v>
+      </c>
+      <c r="R317">
+        <v>1.03</v>
+      </c>
+      <c r="S317">
+        <v>0.878</v>
+      </c>
+      <c r="T317">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>340</v>
+      </c>
+      <c r="B318">
+        <v>196011</v>
+      </c>
+      <c r="C318" t="s">
+        <v>172</v>
+      </c>
+      <c r="D318" t="s">
+        <v>123</v>
+      </c>
+      <c r="E318" t="s">
+        <v>332</v>
+      </c>
+      <c r="F318">
+        <v>0.111</v>
+      </c>
+      <c r="G318">
+        <v>0.75</v>
+      </c>
+      <c r="H318">
+        <v>0.114</v>
+      </c>
+      <c r="I318">
+        <v>6.5140000000000002</v>
+      </c>
+      <c r="J318">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K318">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="L318">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M318">
+        <v>12.852</v>
+      </c>
+      <c r="N318">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="O318">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="P318">
+        <v>0.126</v>
+      </c>
+      <c r="Q318">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R318">
+        <v>1.125</v>
+      </c>
+      <c r="S318">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="T318">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>340</v>
+      </c>
+      <c r="B319">
+        <v>196011</v>
+      </c>
+      <c r="C319" t="s">
+        <v>172</v>
+      </c>
+      <c r="D319" t="s">
+        <v>93</v>
+      </c>
+      <c r="E319" t="s">
+        <v>338</v>
+      </c>
+      <c r="F319">
+        <v>0.375</v>
+      </c>
+      <c r="G319">
+        <v>0.15</v>
+      </c>
+      <c r="H319">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I319">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="J319">
+        <v>1.26</v>
+      </c>
+      <c r="K319">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L319">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M319">
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="N319">
+        <v>48.96</v>
+      </c>
+      <c r="O319">
+        <v>0.24</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <v>0.78</v>
+      </c>
+      <c r="S319">
+        <v>1.03</v>
+      </c>
+      <c r="T319">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>341</v>
+      </c>
+      <c r="B320">
+        <v>196012</v>
+      </c>
+      <c r="C320" t="s">
+        <v>112</v>
+      </c>
+      <c r="D320" t="s">
+        <v>313</v>
+      </c>
+      <c r="E320" t="s">
+        <v>338</v>
+      </c>
+      <c r="F320">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G320">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H320">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I320">
+        <v>4.33</v>
+      </c>
+      <c r="J320">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K320">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L320">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M320">
+        <v>14.37</v>
+      </c>
+      <c r="N320">
+        <v>57.45</v>
+      </c>
+      <c r="O320">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="P320">
+        <v>0.188</v>
+      </c>
+      <c r="Q320">
+        <v>0.45</v>
+      </c>
+      <c r="R320">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="S320">
+        <v>1.413</v>
+      </c>
+      <c r="T320">
+        <v>1.677</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>341</v>
+      </c>
+      <c r="B321">
+        <v>196012</v>
+      </c>
+      <c r="C321" t="s">
+        <v>112</v>
+      </c>
+      <c r="D321" t="s">
+        <v>128</v>
+      </c>
+      <c r="E321" t="s">
+        <v>342</v>
+      </c>
+      <c r="F321">
+        <v>0.128</v>
+      </c>
+      <c r="G321">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H321">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I321">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="J321">
+        <v>0.443</v>
+      </c>
+      <c r="K321">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L321">
+        <v>0.114</v>
+      </c>
+      <c r="M321">
+        <v>6.1159999999999997</v>
+      </c>
+      <c r="N321">
+        <v>65.91</v>
+      </c>
+      <c r="O321">
+        <v>0.309</v>
+      </c>
+      <c r="P321">
+        <v>0.123</v>
+      </c>
+      <c r="Q321">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="R321">
+        <v>0.372</v>
+      </c>
+      <c r="S321">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="T321">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>343</v>
+      </c>
+      <c r="B322">
+        <v>196035</v>
+      </c>
+      <c r="C322" t="s">
+        <v>112</v>
+      </c>
+      <c r="D322" t="s">
+        <v>162</v>
+      </c>
+      <c r="E322" t="s">
+        <v>338</v>
+      </c>
+      <c r="F322">
+        <v>0.19</v>
+      </c>
+      <c r="G322">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H322">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I322">
+        <v>20.911999999999999</v>
+      </c>
+      <c r="J322">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="K322">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L322">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M322">
+        <v>2.621</v>
+      </c>
+      <c r="N322">
+        <v>34.32</v>
+      </c>
+      <c r="O322">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P322">
+        <v>0.24</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="S322">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="T322">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>344</v>
+      </c>
+      <c r="B323">
+        <v>200002</v>
+      </c>
+      <c r="C323" t="s">
+        <v>40</v>
+      </c>
+      <c r="D323" t="s">
+        <v>89</v>
+      </c>
+      <c r="E323" t="s">
+        <v>38</v>
+      </c>
+      <c r="F323">
+        <v>1.18</v>
+      </c>
+      <c r="G323">
+        <v>0.33</v>
+      </c>
+      <c r="H323">
+        <v>0.16</v>
+      </c>
+      <c r="I323">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="J323">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K323">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L323">
+        <v>0.433</v>
+      </c>
+      <c r="M323">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="N323">
+        <v>13.98</v>
+      </c>
+      <c r="O323">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="S323">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T323">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>345</v>
+      </c>
+      <c r="B324">
+        <v>200003</v>
+      </c>
+      <c r="C324" t="s">
+        <v>40</v>
+      </c>
+      <c r="D324" t="s">
+        <v>41</v>
+      </c>
+      <c r="E324" t="s">
+        <v>38</v>
+      </c>
+      <c r="F324">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="G324">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H324">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I324">
+        <v>11.423</v>
+      </c>
+      <c r="J324">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M324">
+        <v>0.38</v>
+      </c>
+      <c r="N324">
+        <v>12.79</v>
+      </c>
+      <c r="O324">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <v>0.45</v>
+      </c>
+      <c r="R324">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S324">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="T324">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>346</v>
+      </c>
+      <c r="B325">
+        <v>205001</v>
+      </c>
+      <c r="C325" t="s">
+        <v>88</v>
+      </c>
+      <c r="D325" t="s">
+        <v>94</v>
+      </c>
+      <c r="E325" t="s">
+        <v>262</v>
+      </c>
+      <c r="F325">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G325">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H325">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I325">
+        <v>16.562999999999999</v>
+      </c>
+      <c r="J325">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="K325">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L325">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M325">
+        <v>15.903</v>
+      </c>
+      <c r="N325">
+        <v>14.53</v>
+      </c>
+      <c r="O325">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="P325">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q325">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R325">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="S325">
+        <v>1.01</v>
+      </c>
+      <c r="T325">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>346</v>
+      </c>
+      <c r="B326">
+        <v>205001</v>
+      </c>
+      <c r="C326" t="s">
+        <v>88</v>
+      </c>
+      <c r="D326" t="s">
+        <v>94</v>
+      </c>
+      <c r="E326" t="s">
+        <v>300</v>
+      </c>
+      <c r="F326">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G326">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H326">
+        <v>0.308</v>
+      </c>
+      <c r="I326">
+        <v>17.195</v>
+      </c>
+      <c r="J326">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="K326">
+        <v>0.154</v>
+      </c>
+      <c r="L326">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="M326">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="N326">
+        <v>14.01</v>
+      </c>
+      <c r="O326">
+        <v>0.34</v>
+      </c>
+      <c r="P326">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q326">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="R326">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="S326">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="T326">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>347</v>
+      </c>
+      <c r="B327">
+        <v>206001</v>
+      </c>
+      <c r="C327" t="s">
+        <v>88</v>
+      </c>
+      <c r="D327" t="s">
+        <v>94</v>
+      </c>
+      <c r="E327" t="s">
+        <v>38</v>
+      </c>
+      <c r="F327">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G327">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H327">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I327">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="J327">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="K327">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L327">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M327">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="N327">
+        <v>8.17</v>
+      </c>
+      <c r="O327">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P327">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="Q327">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="R327">
+        <v>0.153</v>
+      </c>
+      <c r="S327">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="T327">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>348</v>
+      </c>
+      <c r="B328">
+        <v>242001</v>
+      </c>
+      <c r="C328" t="s">
+        <v>43</v>
+      </c>
+      <c r="D328" t="s">
+        <v>68</v>
+      </c>
+      <c r="E328" t="s">
+        <v>296</v>
+      </c>
+      <c r="F328">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G328">
+        <v>0.59</v>
+      </c>
+      <c r="H328">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I328">
+        <v>2.105</v>
+      </c>
+      <c r="J328">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="K328">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L328">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M328">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="N328">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O328">
+        <v>15.36</v>
+      </c>
+      <c r="P328">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q328">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="R328">
+        <v>6.4480000000000004</v>
+      </c>
+      <c r="S328">
+        <v>0</v>
+      </c>
+      <c r="T328">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>349</v>
+      </c>
+      <c r="B329">
+        <v>243002</v>
+      </c>
+      <c r="C329" t="s">
+        <v>172</v>
+      </c>
+      <c r="D329" t="s">
+        <v>238</v>
+      </c>
+      <c r="E329" t="s">
+        <v>296</v>
+      </c>
+      <c r="F329">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G329">
+        <v>0.53</v>
+      </c>
+      <c r="H329">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I329">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="J329">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="K329">
+        <v>0.05</v>
+      </c>
+      <c r="L329">
+        <v>0.24</v>
+      </c>
+      <c r="M329">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="N329">
+        <v>20.07</v>
+      </c>
+      <c r="O329">
+        <v>0.5111</v>
+      </c>
+      <c r="P329">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="Q329">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="R329">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="S329">
+        <v>0.876</v>
+      </c>
+      <c r="T329">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>349</v>
+      </c>
+      <c r="B330">
+        <v>243002</v>
+      </c>
+      <c r="C330" t="s">
+        <v>112</v>
+      </c>
+      <c r="D330" t="s">
+        <v>162</v>
+      </c>
+      <c r="E330" t="s">
+        <v>296</v>
+      </c>
+      <c r="F330">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G330">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H330">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I330">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="J330">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="K330">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="L330">
+        <v>0.4</v>
+      </c>
+      <c r="M330">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="N330">
+        <v>11.05</v>
+      </c>
+      <c r="O330">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="P330">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q330">
+        <v>0.95</v>
+      </c>
+      <c r="R330">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="S330">
+        <v>1.125</v>
+      </c>
+      <c r="T330">
+        <v>2.0910000000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>350</v>
+      </c>
+      <c r="B331">
+        <v>244005</v>
+      </c>
+      <c r="C331" t="s">
+        <v>43</v>
+      </c>
+      <c r="D331" t="s">
+        <v>81</v>
+      </c>
+      <c r="E331" t="s">
+        <v>351</v>
+      </c>
+      <c r="F331">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G331">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="H331">
+        <v>0.11</v>
+      </c>
+      <c r="I331">
+        <v>3.9630000000000001</v>
+      </c>
+      <c r="J331">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="K331">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L331">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="M331">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="N331">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="O331">
+        <v>1.091</v>
+      </c>
+      <c r="P331">
+        <v>0.625</v>
+      </c>
+      <c r="Q331">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="R331">
+        <v>3.762</v>
+      </c>
+      <c r="S331">
+        <v>0</v>
+      </c>
+      <c r="T331">
+        <v>0.47399999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/Hall-trace-elements.xlsx
+++ b/data/Hall-trace-elements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28160" windowHeight="10780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hall-trace-elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="356">
   <si>
     <t>species</t>
   </si>
@@ -950,9 +950,6 @@
     <t>shucked, medium</t>
   </si>
   <si>
-    <t>Plactopen magellasnicus</t>
-  </si>
-  <si>
     <t>adductor muscle</t>
   </si>
   <si>
@@ -989,9 +986,6 @@
     <t>Protothaca staminea</t>
   </si>
   <si>
-    <t>Hymenopanaes robustus</t>
-  </si>
-  <si>
     <t>tail, peeled</t>
   </si>
   <si>
@@ -1083,6 +1077,24 @@
   </si>
   <si>
     <t>shucked-whole</t>
+  </si>
+  <si>
+    <t>subgroup</t>
+  </si>
+  <si>
+    <t>finfish</t>
+  </si>
+  <si>
+    <t>mollusc</t>
+  </si>
+  <si>
+    <t>Plactopecten magellanicus</t>
+  </si>
+  <si>
+    <t>Pleoticus robustus</t>
+  </si>
+  <si>
+    <t>crustacean</t>
   </si>
 </sst>
 </file>
@@ -1442,15 +1454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T331"/>
+  <dimension ref="A1:U331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="Q332" sqref="Q332"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A255" sqref="A255"/>
+      <selection pane="topRight" activeCell="U332" sqref="U332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1525,11 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1573,8 +1590,11 @@
       <c r="T2">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1635,8 +1655,11 @@
       <c r="T3">
         <v>0.89400000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1697,8 +1720,11 @@
       <c r="T4">
         <v>1.9550000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1759,8 +1785,11 @@
       <c r="T5">
         <v>2.6150000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1821,8 +1850,11 @@
       <c r="T6">
         <v>1.155</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1883,8 +1915,11 @@
       <c r="T7">
         <v>2.198</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1945,8 +1980,11 @@
       <c r="T8">
         <v>1.155</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2007,8 +2045,11 @@
       <c r="T9">
         <v>0.86899999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2069,8 +2110,11 @@
       <c r="T10">
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2175,11 @@
       <c r="T11">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2193,8 +2240,11 @@
       <c r="T12">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2255,8 +2305,11 @@
       <c r="T13">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2317,8 +2370,11 @@
       <c r="T14">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2379,8 +2435,11 @@
       <c r="T15">
         <v>0.54500000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2441,8 +2500,11 @@
       <c r="T16">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2503,8 +2565,11 @@
       <c r="T17">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2565,8 +2630,11 @@
       <c r="T18">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2627,8 +2695,11 @@
       <c r="T19">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2689,8 +2760,11 @@
       <c r="T20">
         <v>0.49199999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2751,8 +2825,11 @@
       <c r="T21">
         <v>0.33700000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2813,8 +2890,11 @@
       <c r="T22">
         <v>0.41799999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2875,8 +2955,11 @@
       <c r="T23">
         <v>0.49299999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2937,8 +3020,11 @@
       <c r="T24">
         <v>0.49099999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2999,8 +3085,11 @@
       <c r="T25">
         <v>0.53500000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3061,8 +3150,11 @@
       <c r="T26">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3215,11 @@
       <c r="T27">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3185,8 +3280,11 @@
       <c r="T28">
         <v>0.48199999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3247,8 +3345,11 @@
       <c r="T29">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3309,8 +3410,11 @@
       <c r="T30">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3371,8 +3475,11 @@
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3433,8 +3540,11 @@
       <c r="T32">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3495,8 +3605,11 @@
       <c r="T33">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3557,8 +3670,11 @@
       <c r="T34">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3619,8 +3735,11 @@
       <c r="T35">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3681,8 +3800,11 @@
       <c r="T36">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3743,8 +3865,11 @@
       <c r="T37">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3805,8 +3930,11 @@
       <c r="T38">
         <v>0.89200000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -3867,8 +3995,11 @@
       <c r="T39">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3929,8 +4060,11 @@
       <c r="T40">
         <v>1.883</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -3991,8 +4125,11 @@
       <c r="T41">
         <v>0.52800000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -4053,8 +4190,11 @@
       <c r="T42">
         <v>0.52600000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -4115,8 +4255,11 @@
       <c r="T43">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -4177,8 +4320,11 @@
       <c r="T44">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -4239,8 +4385,11 @@
       <c r="T45">
         <v>0.53400000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -4301,8 +4450,11 @@
       <c r="T46">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="T47">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -4425,8 +4580,11 @@
       <c r="T48">
         <v>0.501</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -4487,8 +4645,11 @@
       <c r="T49">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4549,8 +4710,11 @@
       <c r="T50">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -4611,8 +4775,11 @@
       <c r="T51">
         <v>0.56799999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -4673,8 +4840,11 @@
       <c r="T52">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4735,8 +4905,11 @@
       <c r="T53">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -4797,8 +4970,11 @@
       <c r="T54">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -4859,8 +5035,11 @@
       <c r="T55">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -4921,8 +5100,11 @@
       <c r="T56">
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -4983,8 +5165,11 @@
       <c r="T57">
         <v>0.51100000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -5045,8 +5230,11 @@
       <c r="T58">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -5107,8 +5295,11 @@
       <c r="T59">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -5169,8 +5360,11 @@
       <c r="T60">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -5231,8 +5425,11 @@
       <c r="T61">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -5293,8 +5490,11 @@
       <c r="T62">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -5355,8 +5555,11 @@
       <c r="T63">
         <v>0.54500000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -5417,8 +5620,11 @@
       <c r="T64">
         <v>0.46800000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -5479,8 +5685,11 @@
       <c r="T65">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -5541,8 +5750,11 @@
       <c r="T66">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -5603,8 +5815,11 @@
       <c r="T67">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -5665,8 +5880,11 @@
       <c r="T68">
         <v>0.41799999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -5727,8 +5945,11 @@
       <c r="T69">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -5789,8 +6010,11 @@
       <c r="T70">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -5851,8 +6075,11 @@
       <c r="T71">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -5913,8 +6140,11 @@
       <c r="T72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -5975,8 +6205,11 @@
       <c r="T73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -6037,8 +6270,11 @@
       <c r="T74">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -6099,8 +6335,11 @@
       <c r="T75">
         <v>0.54700000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -6161,8 +6400,11 @@
       <c r="T76">
         <v>0.45600000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -6223,8 +6465,11 @@
       <c r="T77">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -6285,8 +6530,11 @@
       <c r="T78">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -6347,8 +6595,11 @@
       <c r="T79">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -6409,8 +6660,11 @@
       <c r="T80">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -6471,8 +6725,11 @@
       <c r="T81">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -6533,8 +6790,11 @@
       <c r="T82">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -6595,8 +6855,11 @@
       <c r="T83">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -6657,8 +6920,11 @@
       <c r="T84">
         <v>0.73299999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -6719,8 +6985,11 @@
       <c r="T85">
         <v>0.54700000000000004</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -6781,8 +7050,11 @@
       <c r="T86">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -6843,8 +7115,11 @@
       <c r="T87">
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -6905,8 +7180,11 @@
       <c r="T88">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -6967,8 +7245,11 @@
       <c r="T89">
         <v>0.43099999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -7029,8 +7310,11 @@
       <c r="T90">
         <v>0.41799999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -7091,8 +7375,11 @@
       <c r="T91">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -7153,8 +7440,11 @@
       <c r="T92">
         <v>0.74299999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -7215,8 +7505,11 @@
       <c r="T93">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -7277,8 +7570,11 @@
       <c r="T94">
         <v>0.69799999999999995</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -7339,8 +7635,11 @@
       <c r="T95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -7401,8 +7700,11 @@
       <c r="T96">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -7463,8 +7765,11 @@
       <c r="T97">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -7525,8 +7830,11 @@
       <c r="T98">
         <v>0.69299999999999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -7587,8 +7895,11 @@
       <c r="T99">
         <v>0.41099999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -7649,8 +7960,11 @@
       <c r="T100">
         <v>1.165</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>132</v>
       </c>
@@ -7711,8 +8025,11 @@
       <c r="T101">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -7773,8 +8090,11 @@
       <c r="T102">
         <v>0.54500000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -7835,8 +8155,11 @@
       <c r="T103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>134</v>
       </c>
@@ -7897,8 +8220,11 @@
       <c r="T104">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U104" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -7959,8 +8285,11 @@
       <c r="T105">
         <v>0.66800000000000004</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>137</v>
       </c>
@@ -8021,8 +8350,11 @@
       <c r="T106">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U106" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -8083,8 +8415,11 @@
       <c r="T107">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U107" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -8145,8 +8480,11 @@
       <c r="T108">
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U108" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -8207,8 +8545,11 @@
       <c r="T109">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -8269,8 +8610,11 @@
       <c r="T110">
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U110" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -8331,8 +8675,11 @@
       <c r="T111">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -8393,8 +8740,11 @@
       <c r="T112">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U112" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -8455,8 +8805,11 @@
       <c r="T113">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -8517,8 +8870,11 @@
       <c r="T114">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -8579,8 +8935,11 @@
       <c r="T115">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -8641,8 +9000,11 @@
       <c r="T116">
         <v>0.58899999999999997</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U116" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -8703,8 +9065,11 @@
       <c r="T117">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U117" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>146</v>
       </c>
@@ -8765,8 +9130,11 @@
       <c r="T118">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U118" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -8827,8 +9195,11 @@
       <c r="T119">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U119" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>148</v>
       </c>
@@ -8889,8 +9260,11 @@
       <c r="T120">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -8951,8 +9325,11 @@
       <c r="T121">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U121" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -9013,8 +9390,11 @@
       <c r="T122">
         <v>0.90200000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U122" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -9075,8 +9455,11 @@
       <c r="T123">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U123" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>150</v>
       </c>
@@ -9137,8 +9520,11 @@
       <c r="T124">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U124" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -9199,8 +9585,11 @@
       <c r="T125">
         <v>0.56299999999999994</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U125" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>153</v>
       </c>
@@ -9261,8 +9650,11 @@
       <c r="T126">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U126" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -9323,8 +9715,11 @@
       <c r="T127">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U127" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>156</v>
       </c>
@@ -9385,8 +9780,11 @@
       <c r="T128">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U128" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>157</v>
       </c>
@@ -9447,8 +9845,11 @@
       <c r="T129">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U129" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -9509,8 +9910,11 @@
       <c r="T130">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U130" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -9571,8 +9975,11 @@
       <c r="T131">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U131" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -9633,8 +10040,11 @@
       <c r="T132">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>161</v>
       </c>
@@ -9695,8 +10105,11 @@
       <c r="T133">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U133" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -9757,8 +10170,11 @@
       <c r="T134">
         <v>0.33900000000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U134" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>163</v>
       </c>
@@ -9819,8 +10235,11 @@
       <c r="T135">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U135" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -9881,8 +10300,11 @@
       <c r="T136">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U136" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -9943,8 +10365,11 @@
       <c r="T137">
         <v>0.48599999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U137" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>166</v>
       </c>
@@ -10005,8 +10430,11 @@
       <c r="T138">
         <v>0.379</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U138" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -10067,8 +10495,11 @@
       <c r="T139">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U139" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -10129,8 +10560,11 @@
       <c r="T140">
         <v>0.55100000000000005</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U140" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -10191,8 +10625,11 @@
       <c r="T141">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U141" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>169</v>
       </c>
@@ -10253,8 +10690,11 @@
       <c r="T142">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U142" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>171</v>
       </c>
@@ -10315,8 +10755,11 @@
       <c r="T143">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U143" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>171</v>
       </c>
@@ -10377,8 +10820,11 @@
       <c r="T144">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U144" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -10439,8 +10885,11 @@
       <c r="T145">
         <v>0.53200000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U145" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -10501,8 +10950,11 @@
       <c r="T146">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U146" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -10563,8 +11015,11 @@
       <c r="T147">
         <v>0.46200000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U147" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>175</v>
       </c>
@@ -10625,8 +11080,11 @@
       <c r="T148">
         <v>2.0259999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U148" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>176</v>
       </c>
@@ -10687,8 +11145,11 @@
       <c r="T149">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U149" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -10749,8 +11210,11 @@
       <c r="T150">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U150" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -10811,8 +11275,11 @@
       <c r="T151">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U151" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>179</v>
       </c>
@@ -10873,8 +11340,11 @@
       <c r="T152">
         <v>0.56299999999999994</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U152" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -10935,8 +11405,11 @@
       <c r="T153">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U153" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -10997,8 +11470,11 @@
       <c r="T154">
         <v>0.73299999999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U154" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -11059,8 +11535,11 @@
       <c r="T155">
         <v>0.54300000000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U155" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>181</v>
       </c>
@@ -11121,8 +11600,11 @@
       <c r="T156">
         <v>0.56899999999999995</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>182</v>
       </c>
@@ -11183,8 +11665,11 @@
       <c r="T157">
         <v>0.53500000000000003</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U157" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>183</v>
       </c>
@@ -11245,8 +11730,11 @@
       <c r="T158">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U158" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -11307,8 +11795,11 @@
       <c r="T159">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U159" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -11369,8 +11860,11 @@
       <c r="T160">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U160" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>186</v>
       </c>
@@ -11431,8 +11925,11 @@
       <c r="T161">
         <v>0.86299999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U161" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>188</v>
       </c>
@@ -11493,8 +11990,11 @@
       <c r="T162">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U162" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>189</v>
       </c>
@@ -11555,8 +12055,11 @@
       <c r="T163">
         <v>0.59899999999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U163" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -11617,8 +12120,11 @@
       <c r="T164">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U164" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -11679,8 +12185,11 @@
       <c r="T165">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U165" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>194</v>
       </c>
@@ -11741,8 +12250,11 @@
       <c r="T166">
         <v>0.56799999999999995</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U166" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>195</v>
       </c>
@@ -11803,8 +12315,11 @@
       <c r="T167">
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>196</v>
       </c>
@@ -11865,8 +12380,11 @@
       <c r="T168">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U168" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -11927,8 +12445,11 @@
       <c r="T169">
         <v>0.41899999999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U169" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>197</v>
       </c>
@@ -11989,8 +12510,11 @@
       <c r="T170">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U170" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>198</v>
       </c>
@@ -12051,8 +12575,11 @@
       <c r="T171">
         <v>0.48899999999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U171" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>199</v>
       </c>
@@ -12113,8 +12640,11 @@
       <c r="T172">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U172" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>200</v>
       </c>
@@ -12175,8 +12705,11 @@
       <c r="T173">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U173" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>203</v>
       </c>
@@ -12237,8 +12770,11 @@
       <c r="T174">
         <v>0.497</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U174" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>205</v>
       </c>
@@ -12299,8 +12835,11 @@
       <c r="T175">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U175" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>206</v>
       </c>
@@ -12361,8 +12900,11 @@
       <c r="T176">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>207</v>
       </c>
@@ -12423,8 +12965,11 @@
       <c r="T177">
         <v>0.60799999999999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U177" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -12485,8 +13030,11 @@
       <c r="T178">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U178" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -12547,8 +13095,11 @@
       <c r="T179">
         <v>0.497</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U179" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>210</v>
       </c>
@@ -12609,8 +13160,11 @@
       <c r="T180">
         <v>0.624</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U180" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>210</v>
       </c>
@@ -12671,8 +13225,11 @@
       <c r="T181">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U181" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -12733,8 +13290,11 @@
       <c r="T182">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -12795,8 +13355,11 @@
       <c r="T183">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U183" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -12857,8 +13420,11 @@
       <c r="T184">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U184" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -12919,8 +13485,11 @@
       <c r="T185">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U185" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>215</v>
       </c>
@@ -12981,8 +13550,11 @@
       <c r="T186">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U186" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>217</v>
       </c>
@@ -13043,8 +13615,11 @@
       <c r="T187">
         <v>0.55100000000000005</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U187" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -13105,8 +13680,11 @@
       <c r="T188">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U188" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>218</v>
       </c>
@@ -13167,8 +13745,11 @@
       <c r="T189">
         <v>0.54200000000000004</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U189" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>218</v>
       </c>
@@ -13229,8 +13810,11 @@
       <c r="T190">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U190" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -13291,8 +13875,11 @@
       <c r="T191">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U191" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>219</v>
       </c>
@@ -13353,8 +13940,11 @@
       <c r="T192">
         <v>0.52800000000000002</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U192" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>220</v>
       </c>
@@ -13415,8 +14005,11 @@
       <c r="T193">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U193" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -13477,8 +14070,11 @@
       <c r="T194">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U194" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -13539,8 +14135,11 @@
       <c r="T195">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U195" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>224</v>
       </c>
@@ -13601,8 +14200,11 @@
       <c r="T196">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U196" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>225</v>
       </c>
@@ -13663,8 +14265,11 @@
       <c r="T197">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U197" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>225</v>
       </c>
@@ -13725,8 +14330,11 @@
       <c r="T198">
         <v>0.68899999999999995</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U198" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>227</v>
       </c>
@@ -13787,8 +14395,11 @@
       <c r="T199">
         <v>0.52300000000000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U199" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>228</v>
       </c>
@@ -13849,8 +14460,11 @@
       <c r="T200">
         <v>0.42699999999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U200" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>228</v>
       </c>
@@ -13911,8 +14525,11 @@
       <c r="T201">
         <v>0.53200000000000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U201" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -13973,8 +14590,11 @@
       <c r="T202">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U202" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -14035,8 +14655,11 @@
       <c r="T203">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>229</v>
       </c>
@@ -14097,8 +14720,11 @@
       <c r="T204">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U204" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>230</v>
       </c>
@@ -14159,8 +14785,11 @@
       <c r="T205">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U205" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>231</v>
       </c>
@@ -14221,8 +14850,11 @@
       <c r="T206">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U206" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>232</v>
       </c>
@@ -14283,8 +14915,11 @@
       <c r="T207">
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U207" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>233</v>
       </c>
@@ -14345,8 +14980,11 @@
       <c r="T208">
         <v>1.5509999999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U208" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>233</v>
       </c>
@@ -14407,8 +15045,11 @@
       <c r="T209">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U209" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>234</v>
       </c>
@@ -14469,8 +15110,11 @@
       <c r="T210">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U210" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -14531,8 +15175,11 @@
       <c r="T211">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U211" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>234</v>
       </c>
@@ -14593,8 +15240,11 @@
       <c r="T212">
         <v>0.58499999999999996</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U212" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>235</v>
       </c>
@@ -14655,8 +15305,11 @@
       <c r="T213">
         <v>0.50700000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U213" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>236</v>
       </c>
@@ -14717,8 +15370,11 @@
       <c r="T214">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U214" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>237</v>
       </c>
@@ -14779,8 +15435,11 @@
       <c r="T215">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U215" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -14841,8 +15500,11 @@
       <c r="T216">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U216" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>239</v>
       </c>
@@ -14903,8 +15565,11 @@
       <c r="T217">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U217" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>242</v>
       </c>
@@ -14965,8 +15630,11 @@
       <c r="T218">
         <v>0.42699999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U218" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -15027,8 +15695,11 @@
       <c r="T219">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U219" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -15089,8 +15760,11 @@
       <c r="T220">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U220" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>243</v>
       </c>
@@ -15151,8 +15825,11 @@
       <c r="T221">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U221" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>244</v>
       </c>
@@ -15213,8 +15890,11 @@
       <c r="T222">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U222" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>245</v>
       </c>
@@ -15275,8 +15955,11 @@
       <c r="T223">
         <v>0.49299999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U223" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -15337,8 +16020,11 @@
       <c r="T224">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U224" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -15399,8 +16085,11 @@
       <c r="T225">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U225" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -15461,8 +16150,11 @@
       <c r="T226">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U226" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>247</v>
       </c>
@@ -15523,8 +16215,11 @@
       <c r="T227">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U227" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>247</v>
       </c>
@@ -15585,8 +16280,11 @@
       <c r="T228">
         <v>1.0129999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U228" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -15647,8 +16345,11 @@
       <c r="T229">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U229" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>248</v>
       </c>
@@ -15709,8 +16410,11 @@
       <c r="T230">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U230" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>251</v>
       </c>
@@ -15771,8 +16475,11 @@
       <c r="T231">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U231" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -15833,8 +16540,11 @@
       <c r="T232">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U232" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -15895,8 +16605,11 @@
       <c r="T233">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U233" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>254</v>
       </c>
@@ -15957,8 +16670,11 @@
       <c r="T234">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U234" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>254</v>
       </c>
@@ -16019,8 +16735,11 @@
       <c r="T235">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U235" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -16081,8 +16800,11 @@
       <c r="T236">
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U236" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>256</v>
       </c>
@@ -16143,8 +16865,11 @@
       <c r="T237">
         <v>1.095</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U237" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -16205,8 +16930,11 @@
       <c r="T238">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U238" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>257</v>
       </c>
@@ -16267,8 +16995,11 @@
       <c r="T239">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U239" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -16329,8 +17060,11 @@
       <c r="T240">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U240" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>258</v>
       </c>
@@ -16391,8 +17125,11 @@
       <c r="T241">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U241" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>259</v>
       </c>
@@ -16453,8 +17190,11 @@
       <c r="T242">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U242" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>260</v>
       </c>
@@ -16515,8 +17255,11 @@
       <c r="T243">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U243" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>261</v>
       </c>
@@ -16577,8 +17320,11 @@
       <c r="T244">
         <v>8.8989999999999991</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U244" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>263</v>
       </c>
@@ -16639,8 +17385,11 @@
       <c r="T245">
         <v>0.92800000000000005</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U245" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>265</v>
       </c>
@@ -16701,8 +17450,11 @@
       <c r="T246">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U246" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>266</v>
       </c>
@@ -16763,8 +17515,11 @@
       <c r="T247">
         <v>1.3720000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U247" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -16825,8 +17580,11 @@
       <c r="T248">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U248" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>269</v>
       </c>
@@ -16887,8 +17645,11 @@
       <c r="T249">
         <v>0.52600000000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U249" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>269</v>
       </c>
@@ -16949,8 +17710,11 @@
       <c r="T250">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U250" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -17011,8 +17775,11 @@
       <c r="T251">
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U251" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -17073,8 +17840,11 @@
       <c r="T252">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U252" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>271</v>
       </c>
@@ -17135,8 +17905,11 @@
       <c r="T253">
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U253" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>271</v>
       </c>
@@ -17197,8 +17970,11 @@
       <c r="T254">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U254" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>272</v>
       </c>
@@ -17259,8 +18035,11 @@
       <c r="T255">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U255" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>273</v>
       </c>
@@ -17321,8 +18100,11 @@
       <c r="T256">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U256" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>274</v>
       </c>
@@ -17383,8 +18165,11 @@
       <c r="T257">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U257" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>276</v>
       </c>
@@ -17445,8 +18230,11 @@
       <c r="T258">
         <v>0.47899999999999998</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U258" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>277</v>
       </c>
@@ -17507,8 +18295,11 @@
       <c r="T259">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U259" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>279</v>
       </c>
@@ -17569,8 +18360,11 @@
       <c r="T260">
         <v>0.48099999999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U260" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>280</v>
       </c>
@@ -17631,8 +18425,11 @@
       <c r="T261">
         <v>0.1203</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U261" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>281</v>
       </c>
@@ -17693,8 +18490,11 @@
       <c r="T262">
         <v>4.4850000000000003</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U262" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>282</v>
       </c>
@@ -17755,8 +18555,11 @@
       <c r="T263">
         <v>0.47799999999999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U263" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -17817,8 +18620,11 @@
       <c r="T264">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U264" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>285</v>
       </c>
@@ -17879,8 +18685,11 @@
       <c r="T265">
         <v>0.49199999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U265" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -17941,8 +18750,11 @@
       <c r="T266">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U266" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>287</v>
       </c>
@@ -18003,8 +18815,11 @@
       <c r="T267">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U267" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -18065,8 +18880,11 @@
       <c r="T268">
         <v>0.53400000000000003</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U268" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>288</v>
       </c>
@@ -18127,8 +18945,11 @@
       <c r="T269">
         <v>0.52900000000000003</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U269" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -18189,8 +19010,11 @@
       <c r="T270">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U270" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -18251,8 +19075,11 @@
       <c r="T271">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U271" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>289</v>
       </c>
@@ -18313,8 +19140,11 @@
       <c r="T272">
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U272" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>290</v>
       </c>
@@ -18375,8 +19205,11 @@
       <c r="T273">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U273" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -18437,8 +19270,11 @@
       <c r="T274">
         <v>0.71499999999999997</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U274" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -18499,8 +19335,11 @@
       <c r="T275">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U275" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -18561,8 +19400,11 @@
       <c r="T276">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U276" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -18623,8 +19465,11 @@
       <c r="T277">
         <v>1.0529999999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U277" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>297</v>
       </c>
@@ -18685,8 +19530,11 @@
       <c r="T278">
         <v>0.92800000000000005</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U278" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>299</v>
       </c>
@@ -18747,8 +19595,11 @@
       <c r="T279">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U279" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>301</v>
       </c>
@@ -18809,8 +19660,11 @@
       <c r="T280">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U280" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -18871,8 +19725,11 @@
       <c r="T281">
         <v>0.93100000000000005</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U281" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>303</v>
       </c>
@@ -18933,8 +19790,11 @@
       <c r="T282">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U282" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>303</v>
       </c>
@@ -18995,8 +19855,11 @@
       <c r="T283">
         <v>0.83299999999999996</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U283" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>303</v>
       </c>
@@ -19057,8 +19920,11 @@
       <c r="T284">
         <v>1.0109999999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U284" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>304</v>
       </c>
@@ -19119,8 +19985,11 @@
       <c r="T285">
         <v>0.80500000000000005</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U285" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -19181,8 +20050,11 @@
       <c r="T286">
         <v>0.76600000000000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U286" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>304</v>
       </c>
@@ -19243,10 +20115,13 @@
       <c r="T287">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U287" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="B288">
         <v>190013</v>
@@ -19258,7 +20133,7 @@
         <v>74</v>
       </c>
       <c r="E288" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F288">
         <v>0.05</v>
@@ -19305,10 +20180,13 @@
       <c r="T288">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U288" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B289">
         <v>190014</v>
@@ -19317,10 +20195,10 @@
         <v>47</v>
       </c>
       <c r="D289" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E289" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F289">
         <v>9.0999999999999998E-2</v>
@@ -19367,10 +20245,13 @@
       <c r="T289">
         <v>0.71099999999999997</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U289" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B290">
         <v>190016</v>
@@ -19429,10 +20310,13 @@
       <c r="T290">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U290" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B291">
         <v>190028</v>
@@ -19441,10 +20325,10 @@
         <v>112</v>
       </c>
       <c r="D291" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E291" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F291">
         <v>0.02</v>
@@ -19491,10 +20375,13 @@
       <c r="T291">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U291" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B292">
         <v>191001</v>
@@ -19506,7 +20393,7 @@
         <v>193</v>
       </c>
       <c r="E292" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F292">
         <v>6.5000000000000002E-2</v>
@@ -19553,10 +20440,13 @@
       <c r="T292">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U292" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B293">
         <v>191001</v>
@@ -19568,7 +20458,7 @@
         <v>62</v>
       </c>
       <c r="E293" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F293">
         <v>3.7999999999999999E-2</v>
@@ -19615,10 +20505,13 @@
       <c r="T293">
         <v>0.69199999999999995</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U293" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>191003</v>
@@ -19630,7 +20523,7 @@
         <v>162</v>
       </c>
       <c r="E294" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F294">
         <v>0.1</v>
@@ -19677,10 +20570,13 @@
       <c r="T294">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U294" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B295">
         <v>191003</v>
@@ -19739,10 +20635,13 @@
       <c r="T295">
         <v>0.61299999999999999</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U295" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>191008</v>
@@ -19801,10 +20700,13 @@
       <c r="T296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U296" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B297">
         <v>192003</v>
@@ -19816,7 +20718,7 @@
         <v>185</v>
       </c>
       <c r="E297" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F297">
         <v>7.3999999999999996E-2</v>
@@ -19863,10 +20765,13 @@
       <c r="T297">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U297" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>192004</v>
@@ -19878,7 +20783,7 @@
         <v>56</v>
       </c>
       <c r="E298" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F298">
         <v>9.6000000000000002E-2</v>
@@ -19925,10 +20830,13 @@
       <c r="T298">
         <v>0.72199999999999998</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U298" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B299">
         <v>192004</v>
@@ -19940,7 +20848,7 @@
         <v>89</v>
       </c>
       <c r="E299" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F299">
         <v>2.9000000000000001E-2</v>
@@ -19987,10 +20895,13 @@
       <c r="T299">
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U299" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B300">
         <v>192005</v>
@@ -20002,7 +20913,7 @@
         <v>89</v>
       </c>
       <c r="E300" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F300">
         <v>7.6999999999999999E-2</v>
@@ -20049,10 +20960,13 @@
       <c r="T300">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U300" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B301">
         <v>192007</v>
@@ -20064,7 +20978,7 @@
         <v>71</v>
       </c>
       <c r="E301" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F301">
         <v>0.13600000000000001</v>
@@ -20111,10 +21025,13 @@
       <c r="T301">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U301" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B302">
         <v>192010</v>
@@ -20126,7 +21043,7 @@
         <v>41</v>
       </c>
       <c r="E302" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F302">
         <v>0.13</v>
@@ -20173,10 +21090,13 @@
       <c r="T302">
         <v>0.876</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U302" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B303">
         <v>192010</v>
@@ -20188,7 +21108,7 @@
         <v>3</v>
       </c>
       <c r="E303" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F303">
         <v>3.6999999999999998E-2</v>
@@ -20235,10 +21155,13 @@
       <c r="T303">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U303" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B304">
         <v>192011</v>
@@ -20250,7 +21173,7 @@
         <v>117</v>
       </c>
       <c r="E304" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -20297,10 +21220,13 @@
       <c r="T304">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U304" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B305">
         <v>192012</v>
@@ -20309,10 +21235,10 @@
         <v>112</v>
       </c>
       <c r="D305" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E305" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F305">
         <v>0.16800000000000001</v>
@@ -20359,10 +21285,13 @@
       <c r="T305">
         <v>0.72899999999999998</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U305" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B306">
         <v>194002</v>
@@ -20374,7 +21303,7 @@
         <v>84</v>
       </c>
       <c r="E306" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F306">
         <v>0.19</v>
@@ -20421,10 +21350,13 @@
       <c r="T306">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U306" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B307">
         <v>194002</v>
@@ -20436,7 +21368,7 @@
         <v>57</v>
       </c>
       <c r="E307" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F307">
         <v>8.4000000000000005E-2</v>
@@ -20483,10 +21415,13 @@
       <c r="T307">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U307" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B308">
         <v>194003</v>
@@ -20498,7 +21433,7 @@
         <v>37</v>
       </c>
       <c r="E308" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F308">
         <v>6.4000000000000001E-2</v>
@@ -20545,10 +21480,13 @@
       <c r="T308">
         <v>1.163</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U308" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B309">
         <v>194012</v>
@@ -20560,7 +21498,7 @@
         <v>117</v>
       </c>
       <c r="E309" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F309">
         <v>0.115</v>
@@ -20607,10 +21545,13 @@
       <c r="T309">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U309" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B310">
         <v>196001</v>
@@ -20622,7 +21563,7 @@
         <v>75</v>
       </c>
       <c r="E310" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F310">
         <v>3.6999999999999998E-2</v>
@@ -20669,10 +21610,13 @@
       <c r="T310">
         <v>0.86099999999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U310" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B311">
         <v>196001</v>
@@ -20684,7 +21628,7 @@
         <v>50</v>
       </c>
       <c r="E311" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F311">
         <v>9.9000000000000005E-2</v>
@@ -20731,10 +21675,13 @@
       <c r="T311">
         <v>0.92700000000000005</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U311" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B312">
         <v>196001</v>
@@ -20746,7 +21693,7 @@
         <v>138</v>
       </c>
       <c r="E312" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F312">
         <v>0.41299999999999998</v>
@@ -20793,10 +21740,13 @@
       <c r="T312">
         <v>0.92900000000000005</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U312" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B313">
         <v>196001</v>
@@ -20808,7 +21758,7 @@
         <v>136</v>
       </c>
       <c r="E313" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F313">
         <v>5.2999999999999999E-2</v>
@@ -20855,10 +21805,13 @@
       <c r="T313">
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U313" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B314" s="2">
         <v>196001</v>
@@ -20870,7 +21823,7 @@
         <v>56</v>
       </c>
       <c r="E314" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F314">
         <v>0.13500000000000001</v>
@@ -20917,10 +21870,13 @@
       <c r="T314">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U314" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B315">
         <v>196003</v>
@@ -20929,10 +21885,10 @@
         <v>43</v>
       </c>
       <c r="D315" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E315" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -20979,10 +21935,13 @@
       <c r="T315">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U315" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B316">
         <v>196006</v>
@@ -20994,7 +21953,7 @@
         <v>151</v>
       </c>
       <c r="E316" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F316">
         <v>0.151</v>
@@ -21041,10 +22000,13 @@
       <c r="T316">
         <v>0.77800000000000002</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U316" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B317">
         <v>196011</v>
@@ -21056,7 +22018,7 @@
         <v>165</v>
       </c>
       <c r="E317" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F317">
         <v>9.4E-2</v>
@@ -21103,10 +22065,13 @@
       <c r="T317">
         <v>1.089</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U317" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B318">
         <v>196011</v>
@@ -21118,7 +22083,7 @@
         <v>123</v>
       </c>
       <c r="E318" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F318">
         <v>0.111</v>
@@ -21165,10 +22130,13 @@
       <c r="T318">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U318" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B319">
         <v>196011</v>
@@ -21180,7 +22148,7 @@
         <v>93</v>
       </c>
       <c r="E319" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F319">
         <v>0.375</v>
@@ -21227,10 +22195,13 @@
       <c r="T319">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U319" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B320">
         <v>196012</v>
@@ -21239,10 +22210,10 @@
         <v>112</v>
       </c>
       <c r="D320" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E320" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F320">
         <v>3.7999999999999999E-2</v>
@@ -21289,10 +22260,13 @@
       <c r="T320">
         <v>1.677</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U320" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B321">
         <v>196012</v>
@@ -21304,7 +22278,7 @@
         <v>128</v>
       </c>
       <c r="E321" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F321">
         <v>0.128</v>
@@ -21351,10 +22325,13 @@
       <c r="T321">
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U321" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B322">
         <v>196035</v>
@@ -21366,7 +22343,7 @@
         <v>162</v>
       </c>
       <c r="E322" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F322">
         <v>0.19</v>
@@ -21413,10 +22390,13 @@
       <c r="T322">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U322" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B323">
         <v>200002</v>
@@ -21475,10 +22455,13 @@
       <c r="T323">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U323" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B324">
         <v>200003</v>
@@ -21537,10 +22520,13 @@
       <c r="T324">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U324" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B325">
         <v>205001</v>
@@ -21599,10 +22585,13 @@
       <c r="T325">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U325" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B326">
         <v>205001</v>
@@ -21661,10 +22650,13 @@
       <c r="T326">
         <v>0.85099999999999998</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U326" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B327">
         <v>206001</v>
@@ -21723,10 +22715,13 @@
       <c r="T327">
         <v>0.73699999999999999</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U327" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B328">
         <v>242001</v>
@@ -21785,10 +22780,13 @@
       <c r="T328">
         <v>0.51900000000000002</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U328" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B329">
         <v>243002</v>
@@ -21847,10 +22845,13 @@
       <c r="T329">
         <v>1.486</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U329" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B330">
         <v>243002</v>
@@ -21909,10 +22910,13 @@
       <c r="T330">
         <v>2.0910000000000002</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U330" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B331">
         <v>244005</v>
@@ -21924,7 +22928,7 @@
         <v>81</v>
       </c>
       <c r="E331" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F331">
         <v>3.6999999999999998E-2</v>
@@ -21970,6 +22974,9 @@
       </c>
       <c r="T331">
         <v>0.47399999999999998</v>
+      </c>
+      <c r="U331" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
